--- a/files/BM-8084001-ZCI_211012.xlsx
+++ b/files/BM-8084001-ZCI_211012.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1822.RYODEN\Desktop\web公開向け_RE01+LR1110_Design data_rev1.1\web公開向け_RE01+LR1110_Design data_rev1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\●デスクトップ_D\SoTB\●周辺素子\LoRa\プレスリリース向け\菱電商事\211019_GitHub\211019_GitHub_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCC5240-CDDD-46D0-AE02-1E46244BD67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFFB1BF-2BAA-448C-B720-A71B4105AFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-17400" windowWidth="30960" windowHeight="16920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="11" r:id="rId1"/>
@@ -803,10 +803,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RA1,RA2,RA6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C2,C7,C28,C41,C44-C46,C51-C53,C68,C69,C71,C72,C74-C81</t>
   </si>
   <si>
@@ -941,6 +937,10 @@
   </si>
   <si>
     <t>BM-8084001-ZCI　　　　　　　　　　　　　　　　　　　　　　　　　　Rev.1'st</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA1,RA2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2153,18 +2153,18 @@
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="8" max="8" width="17.59765625" customWidth="1"/>
-    <col min="9" max="9" width="12.59765625" customWidth="1"/>
-    <col min="10" max="10" width="10.86328125" customWidth="1"/>
-    <col min="11" max="12" width="10.59765625" customWidth="1"/>
-    <col min="13" max="13" width="4.73046875" customWidth="1"/>
-    <col min="14" max="14" width="7.73046875" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="10.875" customWidth="1"/>
+    <col min="11" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="4.75" customWidth="1"/>
+    <col min="14" max="14" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="12"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2180,7 +2180,7 @@
       <c r="M1" s="65"/>
       <c r="N1" s="66"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2196,7 +2196,7 @@
       <c r="M2" s="67"/>
       <c r="N2" s="68"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="14"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2212,7 +2212,7 @@
       <c r="M3" s="67"/>
       <c r="N3" s="68"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2228,7 +2228,7 @@
       <c r="M4" s="67"/>
       <c r="N4" s="68"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="14"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2244,7 +2244,7 @@
       <c r="M5" s="67"/>
       <c r="N5" s="68"/>
     </row>
-    <row r="6" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="137" t="s">
         <v>41</v>
       </c>
@@ -2262,7 +2262,7 @@
       <c r="M6" s="138"/>
       <c r="N6" s="139"/>
     </row>
-    <row r="7" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -2278,7 +2278,7 @@
       <c r="M7" s="35"/>
       <c r="N7" s="36"/>
     </row>
-    <row r="8" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2294,7 +2294,7 @@
       <c r="M8" s="67"/>
       <c r="N8" s="68"/>
     </row>
-    <row r="9" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
@@ -2314,7 +2314,7 @@
       <c r="M9" s="67"/>
       <c r="N9" s="68"/>
     </row>
-    <row r="10" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2334,7 +2334,7 @@
       <c r="M10" s="67"/>
       <c r="N10" s="68"/>
     </row>
-    <row r="11" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
@@ -2354,7 +2354,7 @@
       <c r="M11" s="67"/>
       <c r="N11" s="68"/>
     </row>
-    <row r="12" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
@@ -2378,7 +2378,7 @@
       <c r="M12" s="67"/>
       <c r="N12" s="68"/>
     </row>
-    <row r="13" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -2394,7 +2394,7 @@
       <c r="M13" s="11"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -2410,7 +2410,7 @@
       <c r="M14" s="11"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -2426,7 +2426,7 @@
       <c r="M15" s="11"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:14" ht="28.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="72"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -2442,7 +2442,7 @@
       <c r="M16" s="67"/>
       <c r="N16" s="68"/>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="73"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -2464,7 +2464,7 @@
       <c r="M17" s="67"/>
       <c r="N17" s="68"/>
     </row>
-    <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="73"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -2480,7 +2480,7 @@
       <c r="M18" s="67"/>
       <c r="N18" s="68"/>
     </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="73"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2496,7 +2496,7 @@
       <c r="M19" s="67"/>
       <c r="N19" s="68"/>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="73"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2512,7 +2512,7 @@
       <c r="M20" s="67"/>
       <c r="N20" s="68"/>
     </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="73"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -2528,7 +2528,7 @@
       <c r="M21" s="67"/>
       <c r="N21" s="68"/>
     </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="73"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2544,7 +2544,7 @@
       <c r="M22" s="67"/>
       <c r="N22" s="68"/>
     </row>
-    <row r="23" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="73"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2560,7 +2560,7 @@
       <c r="M23" s="67"/>
       <c r="N23" s="68"/>
     </row>
-    <row r="24" spans="1:14" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="73"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2574,7 +2574,7 @@
       <c r="M24" s="67"/>
       <c r="N24" s="68"/>
     </row>
-    <row r="25" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="74"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -2590,7 +2590,7 @@
       <c r="M25" s="75"/>
       <c r="N25" s="76"/>
     </row>
-    <row r="26" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2600,7 +2600,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2610,7 +2610,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2620,7 +2620,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2630,7 +2630,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2640,7 +2640,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2650,7 +2650,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2660,7 +2660,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2670,7 +2670,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2680,7 +2680,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2690,7 +2690,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2700,7 +2700,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2710,7 +2710,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2720,7 +2720,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2749,31 +2749,31 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.86328125" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" customWidth="1"/>
-    <col min="3" max="3" width="7.265625" customWidth="1"/>
-    <col min="4" max="4" width="7.46484375" customWidth="1"/>
-    <col min="5" max="5" width="7.265625" customWidth="1"/>
-    <col min="6" max="6" width="88.1328125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="7.86328125" customWidth="1"/>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="7.25" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="7.25" customWidth="1"/>
+    <col min="6" max="6" width="88.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="64" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="64" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
       <c r="E1" s="47"/>
       <c r="F1" s="47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G1" s="41"/>
     </row>
-    <row r="2" spans="1:7" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
         <v>36</v>
       </c>
@@ -2783,7 +2783,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="39"/>
     </row>
-    <row r="3" spans="1:7" s="62" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="62" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="58" t="s">
         <v>37</v>
       </c>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="G3" s="61"/>
     </row>
-    <row r="4" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="83">
         <v>1</v>
       </c>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="G4" s="111"/>
     </row>
-    <row r="5" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="112"/>
       <c r="B5" s="113"/>
       <c r="C5" s="114"/>
@@ -2828,7 +2828,7 @@
       <c r="F5" s="115"/>
       <c r="G5" s="116"/>
     </row>
-    <row r="6" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="112"/>
       <c r="B6" s="113"/>
       <c r="C6" s="114"/>
@@ -2837,7 +2837,7 @@
       <c r="F6" s="115"/>
       <c r="G6" s="116"/>
     </row>
-    <row r="7" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="112"/>
       <c r="B7" s="113"/>
       <c r="C7" s="114"/>
@@ -2846,7 +2846,7 @@
       <c r="F7" s="115"/>
       <c r="G7" s="116"/>
     </row>
-    <row r="8" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="48"/>
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
@@ -2855,7 +2855,7 @@
       <c r="F8" s="50"/>
       <c r="G8" s="51"/>
     </row>
-    <row r="9" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="48"/>
       <c r="B9" s="49"/>
       <c r="C9" s="49"/>
@@ -2864,7 +2864,7 @@
       <c r="F9" s="50"/>
       <c r="G9" s="51"/>
     </row>
-    <row r="10" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="52"/>
       <c r="B10" s="53"/>
       <c r="C10" s="53"/>
@@ -2873,7 +2873,7 @@
       <c r="F10" s="54"/>
       <c r="G10" s="55"/>
     </row>
-    <row r="11" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="52"/>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -2882,7 +2882,7 @@
       <c r="F11" s="85"/>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="48"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
@@ -2891,7 +2891,7 @@
       <c r="F12" s="50"/>
       <c r="G12" s="51"/>
     </row>
-    <row r="13" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="48"/>
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
@@ -2900,7 +2900,7 @@
       <c r="F13" s="50"/>
       <c r="G13" s="51"/>
     </row>
-    <row r="14" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="48"/>
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
@@ -2909,7 +2909,7 @@
       <c r="F14" s="50"/>
       <c r="G14" s="51"/>
     </row>
-    <row r="15" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
       <c r="C15" s="49"/>
@@ -2918,7 +2918,7 @@
       <c r="F15" s="50"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
       <c r="C16" s="49"/>
@@ -2927,7 +2927,7 @@
       <c r="F16" s="50"/>
       <c r="G16" s="51"/>
     </row>
-    <row r="17" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
       <c r="C17" s="49"/>
@@ -2936,7 +2936,7 @@
       <c r="F17" s="50"/>
       <c r="G17" s="51"/>
     </row>
-    <row r="18" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
       <c r="C18" s="49"/>
@@ -2948,7 +2948,7 @@
       <c r="K18" s="84"/>
       <c r="L18" s="84"/>
     </row>
-    <row r="19" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
@@ -2957,7 +2957,7 @@
       <c r="F19" s="50"/>
       <c r="G19" s="51"/>
     </row>
-    <row r="20" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
       <c r="C20" s="49"/>
@@ -2966,7 +2966,7 @@
       <c r="F20" s="50"/>
       <c r="G20" s="51"/>
     </row>
-    <row r="21" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
       <c r="C21" s="49"/>
@@ -2975,7 +2975,7 @@
       <c r="F21" s="50"/>
       <c r="G21" s="51"/>
     </row>
-    <row r="22" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
       <c r="C22" s="49"/>
@@ -2984,7 +2984,7 @@
       <c r="F22" s="50"/>
       <c r="G22" s="51"/>
     </row>
-    <row r="23" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
       <c r="C23" s="49"/>
@@ -2993,7 +2993,7 @@
       <c r="F23" s="50"/>
       <c r="G23" s="51"/>
     </row>
-    <row r="24" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
@@ -3002,7 +3002,7 @@
       <c r="F24" s="50"/>
       <c r="G24" s="51"/>
     </row>
-    <row r="25" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
@@ -3011,7 +3011,7 @@
       <c r="F25" s="50"/>
       <c r="G25" s="51"/>
     </row>
-    <row r="26" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
       <c r="C26" s="49"/>
@@ -3020,7 +3020,7 @@
       <c r="F26" s="50"/>
       <c r="G26" s="51"/>
     </row>
-    <row r="27" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="48"/>
       <c r="B27" s="49"/>
       <c r="C27" s="49"/>
@@ -3029,7 +3029,7 @@
       <c r="F27" s="50"/>
       <c r="G27" s="51"/>
     </row>
-    <row r="28" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="48"/>
       <c r="B28" s="49"/>
       <c r="C28" s="49"/>
@@ -3038,7 +3038,7 @@
       <c r="F28" s="50"/>
       <c r="G28" s="51"/>
     </row>
-    <row r="29" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
       <c r="C29" s="49"/>
@@ -3047,7 +3047,7 @@
       <c r="F29" s="50"/>
       <c r="G29" s="51"/>
     </row>
-    <row r="30" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="52"/>
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
@@ -3056,7 +3056,7 @@
       <c r="F30" s="54"/>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="52"/>
       <c r="B31" s="53"/>
       <c r="C31" s="53"/>
@@ -3065,7 +3065,7 @@
       <c r="F31" s="54"/>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="48"/>
       <c r="B32" s="49"/>
       <c r="C32" s="49"/>
@@ -3074,7 +3074,7 @@
       <c r="F32" s="50"/>
       <c r="G32" s="51"/>
     </row>
-    <row r="33" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="48"/>
       <c r="B33" s="49"/>
       <c r="C33" s="49"/>
@@ -3083,7 +3083,7 @@
       <c r="F33" s="50"/>
       <c r="G33" s="51"/>
     </row>
-    <row r="34" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="48"/>
       <c r="B34" s="49"/>
       <c r="C34" s="56"/>
@@ -3092,7 +3092,7 @@
       <c r="F34" s="50"/>
       <c r="G34" s="51"/>
     </row>
-    <row r="35" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="48"/>
       <c r="B35" s="49"/>
       <c r="C35" s="56"/>
@@ -3101,7 +3101,7 @@
       <c r="F35" s="50"/>
       <c r="G35" s="51"/>
     </row>
-    <row r="36" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="48"/>
       <c r="B36" s="49"/>
       <c r="C36" s="56"/>
@@ -3110,7 +3110,7 @@
       <c r="F36" s="50"/>
       <c r="G36" s="51"/>
     </row>
-    <row r="37" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="48"/>
       <c r="B37" s="49"/>
       <c r="C37" s="49"/>
@@ -3119,7 +3119,7 @@
       <c r="F37" s="50"/>
       <c r="G37" s="51"/>
     </row>
-    <row r="38" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="48"/>
       <c r="B38" s="49"/>
       <c r="C38" s="49"/>
@@ -3128,7 +3128,7 @@
       <c r="F38" s="50"/>
       <c r="G38" s="51"/>
     </row>
-    <row r="39" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="48"/>
       <c r="B39" s="49"/>
       <c r="C39" s="49"/>
@@ -3137,7 +3137,7 @@
       <c r="F39" s="50"/>
       <c r="G39" s="51"/>
     </row>
-    <row r="40" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="48"/>
       <c r="B40" s="49"/>
       <c r="C40" s="49"/>
@@ -3146,7 +3146,7 @@
       <c r="F40" s="50"/>
       <c r="G40" s="51"/>
     </row>
-    <row r="41" spans="1:7" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="42"/>
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
@@ -3155,7 +3155,7 @@
       <c r="F41" s="44"/>
       <c r="G41" s="45"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -3176,32 +3176,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="103" customWidth="1"/>
-    <col min="2" max="2" width="21.265625" style="100" customWidth="1"/>
-    <col min="3" max="3" width="26.265625" style="100" customWidth="1"/>
-    <col min="4" max="4" width="16.3984375" style="100" customWidth="1"/>
-    <col min="5" max="5" width="56.59765625" style="100" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="103" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="100" customWidth="1"/>
+    <col min="3" max="3" width="26.25" style="100" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="100" customWidth="1"/>
+    <col min="5" max="5" width="56.625" style="100" customWidth="1"/>
     <col min="6" max="6" width="4" style="100" customWidth="1"/>
     <col min="7" max="7" width="13" style="104" customWidth="1"/>
-    <col min="8" max="8" width="12.265625" style="90" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="90" customWidth="1"/>
     <col min="9" max="16384" width="9" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="87" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="87" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="79"/>
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
       <c r="E1" s="79" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F1" s="79" t="s">
         <v>1</v>
@@ -3210,7 +3210,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="88"/>
       <c r="B2" s="80" t="s">
         <v>17</v>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="H2" s="89"/>
     </row>
-    <row r="3" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="91">
         <v>1</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="93">
         <v>2</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="91">
         <v>3</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="93">
         <v>4</v>
       </c>
@@ -3326,7 +3326,7 @@
       <c r="H6" s="92"/>
       <c r="I6" s="92"/>
     </row>
-    <row r="7" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="91">
         <v>5</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="93">
         <v>6</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="91">
         <v>7</v>
       </c>
@@ -3397,7 +3397,7 @@
       <c r="H9" s="92"/>
       <c r="I9" s="92"/>
     </row>
-    <row r="10" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="93">
         <v>8</v>
       </c>
@@ -3422,7 +3422,7 @@
       <c r="H10" s="92"/>
       <c r="I10" s="92"/>
     </row>
-    <row r="11" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="91">
         <v>9</v>
       </c>
@@ -3447,7 +3447,7 @@
       <c r="H11" s="92"/>
       <c r="I11" s="92"/>
     </row>
-    <row r="12" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="93">
         <v>10</v>
       </c>
@@ -3472,7 +3472,7 @@
       <c r="H12" s="92"/>
       <c r="I12" s="92"/>
     </row>
-    <row r="13" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="91">
         <v>11</v>
       </c>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="I13" s="92"/>
     </row>
-    <row r="14" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="93">
         <v>12</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="78" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F14" s="78">
         <v>3</v>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="I14" s="92"/>
     </row>
-    <row r="15" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="91">
         <v>13</v>
       </c>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="I15" s="92"/>
     </row>
-    <row r="16" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="93">
         <v>14</v>
       </c>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="I16" s="92"/>
     </row>
-    <row r="17" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="91">
         <v>15</v>
       </c>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="I17" s="92"/>
     </row>
-    <row r="18" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="93">
         <v>16</v>
       </c>
@@ -3619,7 +3619,7 @@
       <c r="K18" s="95"/>
       <c r="L18" s="95"/>
     </row>
-    <row r="19" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="91">
         <v>17</v>
       </c>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="I19" s="92"/>
     </row>
-    <row r="20" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="93">
         <v>18</v>
       </c>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="I20" s="92"/>
     </row>
-    <row r="21" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="91">
         <v>19</v>
       </c>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="I21" s="92"/>
     </row>
-    <row r="22" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="93">
         <v>20</v>
       </c>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="I22" s="92"/>
     </row>
-    <row r="23" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="91">
         <v>21</v>
       </c>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="I23" s="92"/>
     </row>
-    <row r="24" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="93">
         <v>22</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>28</v>
       </c>
       <c r="E24" s="78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F24" s="78">
         <v>22</v>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="I24" s="92"/>
     </row>
-    <row r="25" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="91">
         <v>23</v>
       </c>
@@ -3771,10 +3771,10 @@
         <v>27</v>
       </c>
       <c r="C25" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="77" t="s">
         <v>276</v>
-      </c>
-      <c r="D25" s="77" t="s">
-        <v>277</v>
       </c>
       <c r="E25" s="77" t="s">
         <v>209</v>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="I25" s="92"/>
     </row>
-    <row r="26" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="93">
         <v>24</v>
       </c>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="I26" s="92"/>
     </row>
-    <row r="27" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="91">
         <v>25</v>
       </c>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="I27" s="92"/>
     </row>
-    <row r="28" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="93">
         <v>26</v>
       </c>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="I28" s="92"/>
     </row>
-    <row r="29" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="91">
         <v>27</v>
       </c>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="I29" s="92"/>
     </row>
-    <row r="30" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="93">
         <v>28</v>
       </c>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="I30" s="92"/>
     </row>
-    <row r="31" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="91">
         <v>29</v>
       </c>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="I31" s="92"/>
     </row>
-    <row r="32" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="93">
         <v>30</v>
       </c>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="I32" s="92"/>
     </row>
-    <row r="33" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="91">
         <v>31</v>
       </c>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="I33" s="92"/>
     </row>
-    <row r="34" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="93">
         <v>32</v>
       </c>
@@ -4003,7 +4003,7 @@
       </c>
       <c r="I34" s="92"/>
     </row>
-    <row r="35" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="91">
         <v>33</v>
       </c>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="I35" s="92"/>
     </row>
-    <row r="36" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="93">
         <v>34</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>27</v>
       </c>
       <c r="C36" s="78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D36" s="78" t="s">
         <v>28</v>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="I36" s="92"/>
     </row>
-    <row r="37" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="91">
         <v>35</v>
       </c>
@@ -4075,7 +4075,7 @@
       </c>
       <c r="I37" s="92"/>
     </row>
-    <row r="38" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="93">
         <v>36</v>
       </c>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="I38" s="92"/>
     </row>
-    <row r="39" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="91">
         <v>37</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>28</v>
       </c>
       <c r="E39" s="77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F39" s="77">
         <v>2</v>
@@ -4123,7 +4123,7 @@
       </c>
       <c r="I39" s="92"/>
     </row>
-    <row r="40" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="93">
         <v>38</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>28</v>
       </c>
       <c r="E40" s="78" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F40" s="78">
         <v>1</v>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="I40" s="92"/>
     </row>
-    <row r="41" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="91">
         <v>39</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>195</v>
       </c>
       <c r="C41" s="77" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D41" s="77" t="s">
         <v>196</v>
@@ -4169,7 +4169,7 @@
       <c r="G41" s="124"/>
       <c r="I41" s="92"/>
     </row>
-    <row r="42" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="106">
         <v>40</v>
       </c>
@@ -4177,13 +4177,13 @@
         <v>35</v>
       </c>
       <c r="C42" s="107" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D42" s="107" t="s">
         <v>28</v>
       </c>
       <c r="E42" s="106" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F42" s="107">
         <v>1</v>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="I42" s="92"/>
     </row>
-    <row r="43" spans="1:9" s="98" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="98" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="91">
         <v>41</v>
       </c>
@@ -4218,7 +4218,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="92"/>
     </row>
-    <row r="44" spans="1:9" s="98" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="98" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="106">
         <v>42</v>
       </c>
@@ -4243,15 +4243,15 @@
       <c r="H44" s="94"/>
       <c r="I44" s="92"/>
     </row>
-    <row r="45" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="117" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B45" s="79"/>
       <c r="C45" s="79"/>
       <c r="D45" s="79"/>
       <c r="E45" s="79" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F45" s="79" t="s">
         <v>1</v>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="I45" s="92"/>
     </row>
-    <row r="46" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="88"/>
       <c r="B46" s="80" t="s">
         <v>17</v>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="I46" s="92"/>
     </row>
-    <row r="47" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="93">
         <v>43</v>
       </c>
@@ -4291,13 +4291,13 @@
         <v>35</v>
       </c>
       <c r="C47" s="78" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D47" s="78" t="s">
         <v>28</v>
       </c>
       <c r="E47" s="78" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F47" s="99">
         <v>1</v>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="I47" s="92"/>
     </row>
-    <row r="48" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="91">
         <v>44</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>28</v>
       </c>
       <c r="E48" s="77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F48" s="77">
         <v>1</v>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="I48" s="92"/>
     </row>
-    <row r="49" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="93">
         <v>45</v>
       </c>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="I49" s="92"/>
     </row>
-    <row r="50" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="91">
         <v>46</v>
       </c>
@@ -4363,13 +4363,13 @@
         <v>35</v>
       </c>
       <c r="C50" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D50" s="77" t="s">
         <v>28</v>
       </c>
       <c r="E50" s="77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F50" s="77">
         <v>1</v>
@@ -4379,7 +4379,7 @@
       </c>
       <c r="I50" s="92"/>
     </row>
-    <row r="51" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="93">
         <v>47</v>
       </c>
@@ -4403,7 +4403,7 @@
       </c>
       <c r="I51" s="92"/>
     </row>
-    <row r="52" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="91">
         <v>48</v>
       </c>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="I52" s="92"/>
     </row>
-    <row r="53" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="93">
         <v>49</v>
       </c>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="I53" s="92"/>
     </row>
-    <row r="54" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="91">
         <v>50</v>
       </c>
@@ -4475,21 +4475,21 @@
       </c>
       <c r="I54" s="92"/>
     </row>
-    <row r="55" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="93">
         <v>51</v>
       </c>
       <c r="B55" s="78" t="s">
+        <v>256</v>
+      </c>
+      <c r="C55" s="78" t="s">
         <v>257</v>
-      </c>
-      <c r="C55" s="78" t="s">
-        <v>258</v>
       </c>
       <c r="D55" s="78" t="s">
         <v>28</v>
       </c>
       <c r="E55" s="78" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F55" s="78">
         <v>1</v>
@@ -4499,21 +4499,21 @@
       </c>
       <c r="I55" s="92"/>
     </row>
-    <row r="56" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="91">
         <v>52</v>
       </c>
       <c r="B56" s="77" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C56" s="105" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D56" s="77" t="s">
         <v>28</v>
       </c>
       <c r="E56" s="77" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F56" s="77">
         <v>1</v>
@@ -4522,7 +4522,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="93">
         <v>53</v>
       </c>
@@ -4530,13 +4530,13 @@
         <v>35</v>
       </c>
       <c r="C57" s="78" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D57" s="78" t="s">
         <v>28</v>
       </c>
       <c r="E57" s="78" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F57" s="78">
         <v>1</v>
@@ -4545,7 +4545,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="91">
         <v>54</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>35</v>
       </c>
       <c r="C58" s="77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D58" s="77" t="s">
         <v>3</v>
@@ -4568,7 +4568,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="93">
         <v>55</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="91">
         <v>56</v>
       </c>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="G60" s="119"/>
     </row>
-    <row r="61" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="93">
         <v>57</v>
       </c>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="G61" s="120"/>
     </row>
-    <row r="62" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="91">
         <v>58</v>
       </c>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="G62" s="119"/>
     </row>
-    <row r="63" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="93">
         <v>59</v>
       </c>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="G63" s="120"/>
     </row>
-    <row r="64" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="91">
         <v>60</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>84</v>
       </c>
       <c r="C64" s="77" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D64" s="77" t="s">
         <v>125</v>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="G64" s="128"/>
     </row>
-    <row r="65" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="93">
         <v>61</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>84</v>
       </c>
       <c r="C65" s="78" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D65" s="78" t="s">
         <v>125</v>
@@ -4718,7 +4718,7 @@
       <c r="G65" s="120"/>
       <c r="J65" s="129"/>
     </row>
-    <row r="66" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="91">
         <v>62</v>
       </c>
@@ -4726,10 +4726,10 @@
         <v>214</v>
       </c>
       <c r="C66" s="77" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D66" s="77" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E66" s="77" t="s">
         <v>215</v>
@@ -4738,23 +4738,23 @@
         <v>1</v>
       </c>
       <c r="G66" s="119" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="93"/>
       <c r="B67" s="78"/>
       <c r="C67" s="78" t="s">
         <v>229</v>
       </c>
       <c r="D67" s="78" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E67" s="78"/>
       <c r="F67" s="78"/>
       <c r="G67" s="130"/>
     </row>
-    <row r="68" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="91">
         <v>63</v>
       </c>
@@ -4776,7 +4776,7 @@
       <c r="G68" s="119"/>
       <c r="H68" s="94"/>
     </row>
-    <row r="69" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="93">
         <v>64</v>
       </c>
@@ -4796,10 +4796,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="120" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="91">
         <v>65</v>
       </c>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="G70" s="119"/>
     </row>
-    <row r="71" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="93">
         <v>66</v>
       </c>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="G71" s="120"/>
     </row>
-    <row r="72" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="91">
         <v>67</v>
       </c>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="G72" s="119"/>
     </row>
-    <row r="73" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="93">
         <v>68</v>
       </c>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="G73" s="120"/>
     </row>
-    <row r="74" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="91">
         <v>69</v>
       </c>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="G74" s="119"/>
     </row>
-    <row r="75" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="93">
         <v>70</v>
       </c>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="G75" s="120"/>
     </row>
-    <row r="76" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="91">
         <v>71</v>
       </c>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="G76" s="119"/>
     </row>
-    <row r="77" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="93">
         <v>72</v>
       </c>
@@ -4968,7 +4968,7 @@
       <c r="G77" s="120"/>
       <c r="H77" s="94"/>
     </row>
-    <row r="78" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="91">
         <v>73</v>
       </c>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="G78" s="119"/>
     </row>
-    <row r="79" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="93">
         <v>74</v>
       </c>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="G79" s="120"/>
     </row>
-    <row r="80" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="91">
         <v>75</v>
       </c>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="G80" s="119"/>
     </row>
-    <row r="81" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="93">
         <v>76</v>
       </c>
@@ -5054,7 +5054,7 @@
       <c r="H81" s="100"/>
       <c r="I81" s="92"/>
     </row>
-    <row r="82" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="91">
         <v>77</v>
       </c>
@@ -5079,7 +5079,7 @@
       <c r="H82" s="100"/>
       <c r="I82" s="92"/>
     </row>
-    <row r="83" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="93">
         <v>78</v>
       </c>
@@ -5104,7 +5104,7 @@
       <c r="H83" s="100"/>
       <c r="I83" s="92"/>
     </row>
-    <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="91">
         <v>79</v>
       </c>
@@ -5127,7 +5127,7 @@
       <c r="H84" s="100"/>
       <c r="I84" s="92"/>
     </row>
-    <row r="85" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="93">
         <v>80</v>
       </c>
@@ -5149,7 +5149,7 @@
       <c r="G85" s="120"/>
       <c r="I85" s="92"/>
     </row>
-    <row r="86" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="132"/>
       <c r="B86" s="133"/>
       <c r="C86" s="133" t="s">
@@ -5163,15 +5163,15 @@
       <c r="G86" s="135"/>
       <c r="I86" s="92"/>
     </row>
-    <row r="87" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="117" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B87" s="79"/>
       <c r="C87" s="79"/>
       <c r="D87" s="79"/>
       <c r="E87" s="79" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F87" s="79" t="s">
         <v>1</v>
@@ -5180,7 +5180,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="88"/>
       <c r="B88" s="80" t="s">
         <v>17</v>
@@ -5201,7 +5201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="93">
         <v>81</v>
       </c>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="G89" s="125"/>
     </row>
-    <row r="90" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="91">
         <v>82</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="93">
         <v>83</v>
       </c>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="G91" s="125"/>
     </row>
-    <row r="92" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="91">
         <v>84</v>
       </c>
@@ -5287,7 +5287,7 @@
       </c>
       <c r="G92" s="124"/>
     </row>
-    <row r="93" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="93">
         <v>85</v>
       </c>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="G93" s="125"/>
     </row>
-    <row r="94" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="91">
         <v>86</v>
       </c>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="G94" s="119"/>
     </row>
-    <row r="95" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="93">
         <v>87</v>
       </c>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="G95" s="125"/>
     </row>
-    <row r="96" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="132"/>
       <c r="B96" s="133"/>
       <c r="C96" s="133"/>
@@ -5359,7 +5359,7 @@
       <c r="F96" s="133"/>
       <c r="G96" s="134"/>
     </row>
-    <row r="97" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="93"/>
       <c r="B97" s="78"/>
       <c r="C97" s="78"/>
@@ -5368,7 +5368,7 @@
       <c r="F97" s="78"/>
       <c r="G97" s="125"/>
     </row>
-    <row r="98" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="91"/>
       <c r="B98" s="77"/>
       <c r="C98" s="105"/>
@@ -5377,7 +5377,7 @@
       <c r="F98" s="77"/>
       <c r="G98" s="119"/>
     </row>
-    <row r="99" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="93"/>
       <c r="B99" s="78"/>
       <c r="C99" s="78"/>
@@ -5386,7 +5386,7 @@
       <c r="F99" s="78"/>
       <c r="G99" s="120"/>
     </row>
-    <row r="100" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="91"/>
       <c r="B100" s="77"/>
       <c r="C100" s="77"/>
@@ -5395,7 +5395,7 @@
       <c r="F100" s="77"/>
       <c r="G100" s="119"/>
     </row>
-    <row r="101" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="93"/>
       <c r="B101" s="78" t="s">
         <v>94</v>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="G101" s="120"/>
     </row>
-    <row r="102" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="91"/>
       <c r="B102" s="77"/>
       <c r="C102" s="77"/>
@@ -5418,7 +5418,7 @@
       <c r="F102" s="77"/>
       <c r="G102" s="119"/>
     </row>
-    <row r="103" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="93"/>
       <c r="B103" s="78" t="s">
         <v>95</v>
@@ -5426,14 +5426,14 @@
       <c r="C103" s="78"/>
       <c r="D103" s="78"/>
       <c r="E103" s="78" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F103" s="78">
         <v>17</v>
       </c>
       <c r="G103" s="120"/>
     </row>
-    <row r="104" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="91"/>
       <c r="B104" s="77"/>
       <c r="C104" s="77"/>
@@ -5442,7 +5442,7 @@
       <c r="F104" s="77"/>
       <c r="G104" s="119"/>
     </row>
-    <row r="105" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="93"/>
       <c r="B105" s="78" t="s">
         <v>96</v>
@@ -5453,7 +5453,7 @@
       <c r="F105" s="78"/>
       <c r="G105" s="120"/>
     </row>
-    <row r="106" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="91"/>
       <c r="B106" s="77"/>
       <c r="C106" s="77"/>
@@ -5462,7 +5462,7 @@
       <c r="F106" s="77"/>
       <c r="G106" s="119"/>
     </row>
-    <row r="107" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="93"/>
       <c r="B107" s="78"/>
       <c r="C107" s="78"/>
@@ -5471,7 +5471,7 @@
       <c r="F107" s="78"/>
       <c r="G107" s="120"/>
     </row>
-    <row r="108" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="91"/>
       <c r="B108" s="77"/>
       <c r="C108" s="77"/>
@@ -5480,7 +5480,7 @@
       <c r="F108" s="77"/>
       <c r="G108" s="119"/>
     </row>
-    <row r="109" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="93"/>
       <c r="B109" s="78"/>
       <c r="C109" s="78"/>
@@ -5489,7 +5489,7 @@
       <c r="F109" s="78"/>
       <c r="G109" s="120"/>
     </row>
-    <row r="110" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="91"/>
       <c r="B110" s="77"/>
       <c r="C110" s="77"/>
@@ -5498,7 +5498,7 @@
       <c r="F110" s="77"/>
       <c r="G110" s="119"/>
     </row>
-    <row r="111" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="93"/>
       <c r="B111" s="78"/>
       <c r="C111" s="78"/>
@@ -5507,7 +5507,7 @@
       <c r="F111" s="78"/>
       <c r="G111" s="120"/>
     </row>
-    <row r="112" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="91"/>
       <c r="B112" s="77"/>
       <c r="C112" s="77"/>
@@ -5516,7 +5516,7 @@
       <c r="F112" s="77"/>
       <c r="G112" s="119"/>
     </row>
-    <row r="113" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="93"/>
       <c r="B113" s="78"/>
       <c r="C113" s="78"/>
@@ -5525,7 +5525,7 @@
       <c r="F113" s="78"/>
       <c r="G113" s="120"/>
     </row>
-    <row r="114" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="91"/>
       <c r="B114" s="77"/>
       <c r="C114" s="77"/>
@@ -5534,7 +5534,7 @@
       <c r="F114" s="77"/>
       <c r="G114" s="119"/>
     </row>
-    <row r="115" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="93"/>
       <c r="B115" s="78"/>
       <c r="C115" s="78"/>
@@ -5543,7 +5543,7 @@
       <c r="F115" s="78"/>
       <c r="G115" s="120"/>
     </row>
-    <row r="116" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="91"/>
       <c r="B116" s="77"/>
       <c r="C116" s="77"/>
@@ -5552,7 +5552,7 @@
       <c r="F116" s="77"/>
       <c r="G116" s="119"/>
     </row>
-    <row r="117" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="93"/>
       <c r="B117" s="78"/>
       <c r="C117" s="78"/>
@@ -5561,7 +5561,7 @@
       <c r="F117" s="78"/>
       <c r="G117" s="120"/>
     </row>
-    <row r="118" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="91"/>
       <c r="B118" s="77"/>
       <c r="C118" s="77"/>
@@ -5570,7 +5570,7 @@
       <c r="F118" s="77"/>
       <c r="G118" s="119"/>
     </row>
-    <row r="119" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="93"/>
       <c r="B119" s="78"/>
       <c r="C119" s="78"/>
@@ -5579,7 +5579,7 @@
       <c r="F119" s="78"/>
       <c r="G119" s="120"/>
     </row>
-    <row r="120" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="91"/>
       <c r="B120" s="77"/>
       <c r="C120" s="77"/>
@@ -5588,7 +5588,7 @@
       <c r="F120" s="77"/>
       <c r="G120" s="119"/>
     </row>
-    <row r="121" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="93"/>
       <c r="B121" s="78"/>
       <c r="C121" s="78"/>
@@ -5597,7 +5597,7 @@
       <c r="F121" s="78"/>
       <c r="G121" s="120"/>
     </row>
-    <row r="122" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="91"/>
       <c r="B122" s="77"/>
       <c r="C122" s="77"/>
@@ -5606,7 +5606,7 @@
       <c r="F122" s="77"/>
       <c r="G122" s="119"/>
     </row>
-    <row r="123" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="93"/>
       <c r="B123" s="78"/>
       <c r="C123" s="78"/>
@@ -5615,7 +5615,7 @@
       <c r="F123" s="78"/>
       <c r="G123" s="120"/>
     </row>
-    <row r="124" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="91"/>
       <c r="B124" s="77"/>
       <c r="C124" s="77"/>
@@ -5624,7 +5624,7 @@
       <c r="F124" s="77"/>
       <c r="G124" s="119"/>
     </row>
-    <row r="125" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="93"/>
       <c r="B125" s="78"/>
       <c r="C125" s="78"/>
@@ -5633,7 +5633,7 @@
       <c r="F125" s="78"/>
       <c r="G125" s="120"/>
     </row>
-    <row r="126" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="91"/>
       <c r="B126" s="77"/>
       <c r="C126" s="77"/>
@@ -5642,7 +5642,7 @@
       <c r="F126" s="77"/>
       <c r="G126" s="119"/>
     </row>
-    <row r="127" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="93"/>
       <c r="B127" s="78"/>
       <c r="C127" s="78"/>
@@ -5651,7 +5651,7 @@
       <c r="F127" s="78"/>
       <c r="G127" s="120"/>
     </row>
-    <row r="128" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A128" s="101"/>
       <c r="B128" s="102"/>
       <c r="C128" s="102"/>
@@ -5660,7 +5660,7 @@
       <c r="F128" s="102"/>
       <c r="G128" s="123"/>
     </row>
-    <row r="129" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="131"/>
     </row>
   </sheetData>

--- a/files/BM-8084001-ZCI_211012.xlsx
+++ b/files/BM-8084001-ZCI_211012.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\●デスクトップ_D\SoTB\●周辺素子\LoRa\プレスリリース向け\菱電商事\211019_GitHub\211019_GitHub_v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\●デスクトップ_D\SoTB\●周辺素子\LoRa\●RE01+LR1110評価ボード\●設計データ\RE01+LR1110_Design data_rev1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFFB1BF-2BAA-448C-B720-A71B4105AFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01645261-3C74-432D-A2A4-6611A6DADB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-17400" windowWidth="30960" windowHeight="16920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-14340" windowWidth="26325" windowHeight="12195" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="11" r:id="rId1"/>
     <sheet name="Revision" sheetId="12" r:id="rId2"/>
-    <sheet name="BM-8084001-ZCT" sheetId="4" r:id="rId3"/>
+    <sheet name="A-1570001-SL" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'BM-8084001-ZCT'!$A$1:$G$129</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'A-1570001-SL'!$A$1:$G$130</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="289">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -65,6 +65,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>　　　　A-1570001-SL　　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Item：</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -101,6 +105,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Tokyo Communication Equipment Manufacturing Co., Ltd.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item／Name　RE01+LR1110(Referance)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-1570001-SL　　　　　　　　　　　　　　　　　　　　　　　　　　Rev.1'st</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Item</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -163,6 +179,10 @@
     <t>Inducctor</t>
   </si>
   <si>
+    <t>　　　　　　　　　　　A-1570001-SL　　　　　　　　　　　　　　　　　　　　　　　　　　Rev.1'st</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Revision History</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -520,427 +540,432 @@
     <t>L6,L10</t>
   </si>
   <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>LQW15AN3N3C80D</t>
+  </si>
+  <si>
+    <t>C54,C55</t>
+  </si>
+  <si>
+    <t>EXB-18V470JX</t>
+  </si>
+  <si>
+    <t>GRM0335C1H3R7BA01D</t>
+  </si>
+  <si>
+    <t>GRM0335C1H8R0DA01D</t>
+  </si>
+  <si>
+    <t>C56,C57</t>
+  </si>
+  <si>
+    <t>GRM0335C1H100JA01D</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM0335C1H270GA01D </t>
+  </si>
+  <si>
+    <t>C39,C40</t>
+  </si>
+  <si>
+    <t>GRM0335C1H470GA01D</t>
+  </si>
+  <si>
+    <t>C6,C9,C35</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C8,C29</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>GJM1555C1HR50WB01D</t>
+  </si>
+  <si>
+    <t>C19,C26</t>
+  </si>
+  <si>
+    <t>GJM1555C1HR70WB01D</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>GJM1555C1H1R0WB01D</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>GJM1555C1H1R2WB01D</t>
+  </si>
+  <si>
+    <t>C10,C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GJM1555C1H1R3WB01D </t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>GJM1555C1H1R5WB01D</t>
+  </si>
+  <si>
+    <t>C15,C16</t>
+  </si>
+  <si>
+    <t>GJM1555C1H1R6WB01D</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>GJM1555C1H1R8WB01D</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>GJM1555C1H6R8WB01D</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>GJM1555C1H120FB01D</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>C20,C21,C30,C31</t>
+  </si>
+  <si>
+    <t>GRM155R71H102KA01J</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>GRM155R61A475MEAAD</t>
+  </si>
+  <si>
+    <t>C64,C65,C73</t>
+  </si>
+  <si>
+    <t>ZRB15XR61A106ME01D</t>
+  </si>
+  <si>
+    <t>Small Lithium Ion Rechargeable</t>
+  </si>
+  <si>
+    <t>Nichicon</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>TVS Diode</t>
+  </si>
+  <si>
+    <t>RClamp1851ZATFT</t>
+  </si>
+  <si>
+    <t>Semtech</t>
+  </si>
+  <si>
+    <t>D1,D2,D3</t>
+  </si>
+  <si>
+    <t>S-153T</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>R11,R18,R19,R22,R27</t>
+  </si>
+  <si>
+    <t>ERJ-2GE0R00X</t>
+  </si>
+  <si>
+    <t>ERJ-2GEJ103X</t>
+  </si>
+  <si>
+    <t>R35,R36</t>
+  </si>
+  <si>
+    <t>C58,C61</t>
+  </si>
+  <si>
+    <t>C1,C37,C38,C42,C43,C47,C48,C49,C50,C66,C67</t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>C60</t>
+  </si>
+  <si>
+    <t>L14</t>
+  </si>
+  <si>
+    <t>MMZ0603S100CT000</t>
+  </si>
+  <si>
+    <t>TCXO</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>SII</t>
+  </si>
+  <si>
+    <t>Transistor</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>Infinon</t>
+  </si>
+  <si>
+    <t>SW3,SW4</t>
+  </si>
+  <si>
+    <t>SW1,SW2</t>
+  </si>
+  <si>
+    <t>RF Connector</t>
+  </si>
+  <si>
+    <t>MS-156C3</t>
+  </si>
+  <si>
+    <t>HRM-300-134B(40)</t>
+  </si>
+  <si>
+    <t>CN2</t>
+  </si>
+  <si>
+    <t>RF2-04A-T-00-50-G</t>
+  </si>
+  <si>
+    <t>Adam Tech</t>
+  </si>
+  <si>
+    <t>BGS12WN6E6327XTSA1</t>
+  </si>
+  <si>
+    <t>TYETBCSANF-32.000000</t>
+  </si>
+  <si>
+    <t>R7,R23</t>
+  </si>
+  <si>
+    <t>R20,R21,R26</t>
+  </si>
+  <si>
+    <t>ERJ-1GN0R00C</t>
+  </si>
+  <si>
+    <t>R4,R5</t>
+  </si>
+  <si>
+    <t>ERJ-1GNJ470C</t>
+  </si>
+  <si>
+    <t>R1,R13,R14,R28,R29,R30,R37</t>
+  </si>
+  <si>
+    <t>ERJ-1GNJ101C</t>
+  </si>
+  <si>
+    <t>ERJ-1GNJ201C</t>
+  </si>
+  <si>
+    <t>R3,R6</t>
+  </si>
+  <si>
+    <t>ERJ-1GNJ102C</t>
+  </si>
+  <si>
+    <t>R15,R16,R17</t>
+  </si>
+  <si>
+    <t>ERJ-1GNJ472C</t>
+  </si>
+  <si>
+    <t>R10,R33,R34</t>
+  </si>
+  <si>
+    <t>ERJ-1GNJ103C</t>
+  </si>
+  <si>
+    <t>RA3,RA4,RA7</t>
+  </si>
+  <si>
+    <t>R12,R31,R38,L12,L13,L15,L16,L17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA1,RA2,RA6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C2,C7,C28,C41,C44-C46,C51-C53,C68,C69,C71,C72,C74-C81</t>
+  </si>
+  <si>
+    <t>C59</t>
+  </si>
+  <si>
+    <t>C32,C70</t>
+  </si>
+  <si>
+    <t>LQW15AN2N7B00D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L23</t>
+  </si>
+  <si>
+    <t>L21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LQW15AN10NJ00D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LQW15AN4N7G80D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Inducctor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LQW18AS6N8J00D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LQW18AS9N5J00D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Taitien</t>
+  </si>
+  <si>
+    <t>SeikoEpson</t>
+  </si>
+  <si>
+    <t>MLZ1608N100LTD25</t>
+  </si>
+  <si>
+    <t>L20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LQW18AS12NJ00D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R2,R8,R9,R24,R25,R32,RA5,C18,C23,C27,C34,C36,C62,C63,C82,IC3,CN8(2.54mmpitch TH)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　Zero Carbon LoRa Evaluation Board</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item／Name　Zero Carbon LoRa Evaluation Board</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item／Name　Zero Carbon LoRa Evaluation Board</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2520</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2016</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TG-5006CG-42L 32.000000MHz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VFHL1111C-4B23C-TR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRYPY1211C-0005-TR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SLB08115L1401PM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GJM1555C1H470JB01D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　2021/10/12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C0603X5R1A474M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TDK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NGK INSULATORS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ET271704P-H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>LQW15AN3N6C10D</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>LQW15AN3N3C80D</t>
-  </si>
-  <si>
-    <t>C54,C55</t>
-  </si>
-  <si>
-    <t>EXB-18V470JX</t>
-  </si>
-  <si>
-    <t>GRM0335C1H3R7BA01D</t>
-  </si>
-  <si>
-    <t>GRM0335C1H8R0DA01D</t>
-  </si>
-  <si>
-    <t>C56,C57</t>
-  </si>
-  <si>
-    <t>GRM0335C1H100JA01D</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRM0335C1H270GA01D </t>
-  </si>
-  <si>
-    <t>C39,C40</t>
-  </si>
-  <si>
-    <t>GRM0335C1H470GA01D</t>
-  </si>
-  <si>
-    <t>C6,C9,C35</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C8,C29</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>GJM1555C1HR50WB01D</t>
-  </si>
-  <si>
-    <t>C19,C26</t>
-  </si>
-  <si>
-    <t>GJM1555C1HR70WB01D</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>GJM1555C1H1R0WB01D</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>GJM1555C1H1R2WB01D</t>
-  </si>
-  <si>
-    <t>C10,C11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GJM1555C1H1R3WB01D </t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>GJM1555C1H1R5WB01D</t>
-  </si>
-  <si>
-    <t>C15,C16</t>
-  </si>
-  <si>
-    <t>GJM1555C1H1R6WB01D</t>
-  </si>
-  <si>
-    <t>C17</t>
-  </si>
-  <si>
-    <t>GJM1555C1H1R8WB01D</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
-    <t>GJM1555C1H6R8WB01D</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
-    <t>GJM1555C1H120FB01D</t>
-  </si>
-  <si>
-    <t>C22</t>
-  </si>
-  <si>
-    <t>C20,C21,C30,C31</t>
-  </si>
-  <si>
-    <t>GRM155R71H102KA01J</t>
-  </si>
-  <si>
-    <t>C33</t>
-  </si>
-  <si>
-    <t>GRM155R61A475MEAAD</t>
-  </si>
-  <si>
-    <t>C64,C65,C73</t>
-  </si>
-  <si>
-    <t>ZRB15XR61A106ME01D</t>
-  </si>
-  <si>
-    <t>Small Lithium Ion Rechargeable</t>
-  </si>
-  <si>
-    <t>Nichicon</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>TVS Diode</t>
-  </si>
-  <si>
-    <t>RClamp1851ZATFT</t>
-  </si>
-  <si>
-    <t>Semtech</t>
-  </si>
-  <si>
-    <t>D1,D2,D3</t>
-  </si>
-  <si>
-    <t>S-153T</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>R11,R18,R19,R22,R27</t>
-  </si>
-  <si>
-    <t>ERJ-2GE0R00X</t>
-  </si>
-  <si>
-    <t>ERJ-2GEJ103X</t>
-  </si>
-  <si>
-    <t>R35,R36</t>
-  </si>
-  <si>
-    <t>C58,C61</t>
-  </si>
-  <si>
-    <t>C1,C37,C38,C42,C43,C47,C48,C49,C50,C66,C67</t>
-  </si>
-  <si>
-    <t>1210</t>
-  </si>
-  <si>
-    <t>C60</t>
-  </si>
-  <si>
-    <t>L14</t>
-  </si>
-  <si>
-    <t>MMZ0603S100CT000</t>
-  </si>
-  <si>
-    <t>TCXO</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>SII</t>
-  </si>
-  <si>
-    <t>Transistor</t>
-  </si>
-  <si>
-    <t>IC1</t>
-  </si>
-  <si>
-    <t>Infinon</t>
-  </si>
-  <si>
-    <t>SW3,SW4</t>
-  </si>
-  <si>
-    <t>SW1,SW2</t>
-  </si>
-  <si>
-    <t>RF Connector</t>
-  </si>
-  <si>
-    <t>MS-156C3</t>
-  </si>
-  <si>
-    <t>HRM-300-134B(40)</t>
-  </si>
-  <si>
-    <t>CN2</t>
-  </si>
-  <si>
-    <t>RF2-04A-T-00-50-G</t>
-  </si>
-  <si>
-    <t>Adam Tech</t>
-  </si>
-  <si>
-    <t>BGS12WN6E6327XTSA1</t>
-  </si>
-  <si>
-    <t>TYETBCSANF-32.000000</t>
-  </si>
-  <si>
-    <t>R7,R23</t>
-  </si>
-  <si>
-    <t>R20,R21,R26</t>
-  </si>
-  <si>
-    <t>ERJ-1GN0R00C</t>
-  </si>
-  <si>
-    <t>R4,R5</t>
-  </si>
-  <si>
-    <t>ERJ-1GNJ470C</t>
-  </si>
-  <si>
-    <t>R1,R13,R14,R28,R29,R30,R37</t>
-  </si>
-  <si>
-    <t>ERJ-1GNJ101C</t>
-  </si>
-  <si>
-    <t>ERJ-1GNJ201C</t>
-  </si>
-  <si>
-    <t>R3,R6</t>
-  </si>
-  <si>
-    <t>ERJ-1GNJ102C</t>
-  </si>
-  <si>
-    <t>R15,R16,R17</t>
-  </si>
-  <si>
-    <t>ERJ-1GNJ472C</t>
-  </si>
-  <si>
-    <t>R10,R33,R34</t>
-  </si>
-  <si>
-    <t>ERJ-1GNJ103C</t>
-  </si>
-  <si>
-    <t>RA3,RA4,RA7</t>
-  </si>
-  <si>
-    <t>R12,R31,R38,L12,L13,L15,L16,L17</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C2,C7,C28,C41,C44-C46,C51-C53,C68,C69,C71,C72,C74-C81</t>
-  </si>
-  <si>
-    <t>C59</t>
-  </si>
-  <si>
-    <t>C32,C70</t>
-  </si>
-  <si>
-    <t>LQW15AN2N7B00D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L23</t>
-  </si>
-  <si>
-    <t>L21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LQW15AN10NJ00D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LQW15AN4N7G80D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L19</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Inducctor</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LQW18AS6N8J00D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L22</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LQW18AS9N5J00D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L18</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Taitien</t>
-  </si>
-  <si>
-    <t>SeikoEpson</t>
-  </si>
-  <si>
-    <t>MLZ1608N100LTD25</t>
-  </si>
-  <si>
-    <t>L20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LQW18AS12NJ00D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R2,R8,R9,R24,R25,R32,RA5,C18,C23,C27,C34,C36,C62,C63,C82,IC3,CN8(2.54mmpitch TH)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2520</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2016</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TG-5006CG-42L 32.000000MHz</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VFHL1111C-4B23C-TR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRYPY1211C-0005-TR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLB08115L1401PM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GJM1555C1H470JB01D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　　　2021/10/12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C0603X5R1A474M</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TDK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　  Zero Carbon LoRa IoT Reference Board</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　　　BM-8084001-ZCI　　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　　BM-8084001-ZCI　　　　　　　　　　　　　　　　　　　　　　　　　　Rev.1'st</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Item／Name　Zero Carbon LoRa IoT Reference Board</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BM-8084001-ZCI　　　　　　　　　　　　　　　　　　　　　　　　　　Rev.1'st</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RA1,RA2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1548,7 +1573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1852,6 +1877,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2149,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2245,22 +2273,22 @@
       <c r="N5" s="68"/>
     </row>
     <row r="6" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="137" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="139"/>
+      <c r="A6" s="138" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="139"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="140"/>
     </row>
     <row r="7" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
@@ -2299,11 +2327,11 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="20" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
@@ -2319,7 +2347,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="22"/>
@@ -2339,11 +2367,11 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="22" t="s">
-        <v>278</v>
+        <v>8</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
@@ -2359,19 +2387,19 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="24" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K12" s="21"/>
       <c r="L12" s="70"/>
@@ -2453,13 +2481,13 @@
       <c r="H17" s="9"/>
       <c r="I17" s="67"/>
       <c r="J17" s="27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M17" s="67"/>
       <c r="N17" s="68"/>
@@ -2569,7 +2597,9 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="118"/>
+      <c r="I24" s="118" t="s">
+        <v>18</v>
+      </c>
       <c r="L24" s="67"/>
       <c r="M24" s="67"/>
       <c r="N24" s="68"/>
@@ -2745,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2762,20 +2792,20 @@
   <sheetData>
     <row r="1" spans="1:7" s="64" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
       <c r="E1" s="47"/>
       <c r="F1" s="47" t="s">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
@@ -2785,22 +2815,22 @@
     </row>
     <row r="3" spans="1:7" s="62" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="58" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G3" s="61"/>
     </row>
@@ -2815,7 +2845,7 @@
       <c r="D4" s="109"/>
       <c r="E4" s="109"/>
       <c r="F4" s="110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="111"/>
     </row>
@@ -3174,13 +3204,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L129"/>
+  <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" style="103" customWidth="1"/>
     <col min="2" max="2" width="21.25" style="100" customWidth="1"/>
@@ -3195,40 +3225,40 @@
   <sheetData>
     <row r="1" spans="1:9" s="87" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B1" s="79"/>
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
       <c r="E1" s="79" t="s">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="F1" s="79" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="86" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="88"/>
       <c r="B2" s="80" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" s="80" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G2" s="81" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H2" s="89"/>
     </row>
@@ -3237,22 +3267,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="77" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E3" s="77" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F3" s="77">
         <v>2</v>
       </c>
       <c r="G3" s="124" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3260,22 +3290,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F4" s="78">
         <v>7</v>
       </c>
       <c r="G4" s="125" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3283,22 +3313,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" s="77" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" s="77" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F5" s="77">
         <v>2</v>
       </c>
       <c r="G5" s="124" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3306,22 +3336,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" s="78" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F6" s="78">
         <v>2</v>
       </c>
       <c r="G6" s="125" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H6" s="92"/>
       <c r="I6" s="92"/>
@@ -3331,22 +3361,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F7" s="77">
         <v>3</v>
       </c>
       <c r="G7" s="124" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3354,22 +3384,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8" s="78" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F8" s="78">
         <v>3</v>
       </c>
       <c r="G8" s="125" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3377,22 +3407,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F9" s="77">
         <v>3</v>
       </c>
       <c r="G9" s="124" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H9" s="92"/>
       <c r="I9" s="92"/>
@@ -3402,22 +3432,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" s="78" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E10" s="78" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F10" s="78">
         <v>5</v>
       </c>
       <c r="G10" s="125" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H10" s="92"/>
       <c r="I10" s="92"/>
@@ -3427,22 +3457,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F11" s="77">
         <v>8</v>
       </c>
       <c r="G11" s="124" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H11" s="92"/>
       <c r="I11" s="92"/>
@@ -3452,22 +3482,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12" s="78" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F12" s="136">
         <v>2</v>
       </c>
       <c r="G12" s="125" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H12" s="92"/>
       <c r="I12" s="92"/>
@@ -3477,22 +3507,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C13" s="77" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13" s="77" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F13" s="77">
         <v>3</v>
       </c>
       <c r="G13" s="124" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I13" s="92"/>
     </row>
@@ -3501,22 +3531,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="78" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C14" s="78" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E14" s="78" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="F14" s="78">
         <v>3</v>
       </c>
       <c r="G14" s="125" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I14" s="92"/>
     </row>
@@ -3525,22 +3555,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E15" s="77" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F15" s="77">
         <v>2</v>
       </c>
       <c r="G15" s="124" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I15" s="92"/>
     </row>
@@ -3549,22 +3579,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="78" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E16" s="78" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F16" s="78">
         <v>2</v>
       </c>
       <c r="G16" s="125" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I16" s="92"/>
     </row>
@@ -3573,22 +3603,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C17" s="77" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E17" s="77" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F17" s="77">
         <v>1</v>
       </c>
       <c r="G17" s="124" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I17" s="92"/>
     </row>
@@ -3597,22 +3627,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="78" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C18" s="78" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E18" s="78" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F18" s="78">
         <v>2</v>
       </c>
       <c r="G18" s="125" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I18" s="92"/>
       <c r="J18" s="95"/>
@@ -3624,22 +3654,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D19" s="77" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E19" s="77" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F19" s="77">
         <v>3</v>
       </c>
       <c r="G19" s="124" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I19" s="92"/>
     </row>
@@ -3648,22 +3678,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="78" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E20" s="78" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F20" s="78">
         <v>1</v>
       </c>
       <c r="G20" s="125" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I20" s="92"/>
     </row>
@@ -3672,22 +3702,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="77" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E21" s="77" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F21" s="77">
         <v>2</v>
       </c>
       <c r="G21" s="124" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I21" s="92"/>
     </row>
@@ -3696,22 +3726,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="78" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E22" s="78" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F22" s="78">
         <v>2</v>
       </c>
       <c r="G22" s="125" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I22" s="92"/>
     </row>
@@ -3720,22 +3750,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="77" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C23" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="77" t="s">
-        <v>28</v>
-      </c>
       <c r="E23" s="77" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F23" s="77">
         <v>1</v>
       </c>
       <c r="G23" s="124" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I23" s="92"/>
     </row>
@@ -3744,22 +3774,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="78" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C24" s="78" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E24" s="78" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F24" s="78">
         <v>22</v>
       </c>
       <c r="G24" s="125" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I24" s="92"/>
     </row>
@@ -3768,22 +3798,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C25" s="77" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="D25" s="77" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E25" s="77" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F25" s="77">
         <v>11</v>
       </c>
       <c r="G25" s="124" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I25" s="92"/>
     </row>
@@ -3792,22 +3822,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="78" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C26" s="78" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D26" s="78" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E26" s="78" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F26" s="78">
         <v>2</v>
       </c>
       <c r="G26" s="125" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I26" s="92"/>
     </row>
@@ -3816,22 +3846,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="77" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C27" s="77" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D27" s="77" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E27" s="77" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F27" s="77">
         <v>1</v>
       </c>
       <c r="G27" s="124" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I27" s="92"/>
     </row>
@@ -3840,22 +3870,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="78" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D28" s="78" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E28" s="78" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F28" s="78">
         <v>1</v>
       </c>
       <c r="G28" s="125" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I28" s="92"/>
     </row>
@@ -3864,22 +3894,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="77" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D29" s="77" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E29" s="77" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F29" s="77">
         <v>2</v>
       </c>
       <c r="G29" s="124" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I29" s="92"/>
     </row>
@@ -3888,22 +3918,22 @@
         <v>28</v>
       </c>
       <c r="B30" s="78" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C30" s="78" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D30" s="78" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E30" s="78" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F30" s="78">
         <v>1</v>
       </c>
       <c r="G30" s="120" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I30" s="92"/>
     </row>
@@ -3912,22 +3942,22 @@
         <v>29</v>
       </c>
       <c r="B31" s="77" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C31" s="77" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D31" s="77" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E31" s="77" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F31" s="77">
         <v>2</v>
       </c>
       <c r="G31" s="124" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I31" s="92"/>
     </row>
@@ -3936,232 +3966,232 @@
         <v>30</v>
       </c>
       <c r="B32" s="78" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C32" s="96" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D32" s="78" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E32" s="78" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F32" s="78">
         <v>1</v>
       </c>
       <c r="G32" s="125" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I32" s="92"/>
     </row>
-    <row r="33" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="91">
         <v>31</v>
       </c>
       <c r="B33" s="77" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D33" s="77" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E33" s="77" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F33" s="77">
         <v>1</v>
       </c>
       <c r="G33" s="124" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I33" s="92"/>
     </row>
-    <row r="34" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="93">
         <v>32</v>
       </c>
       <c r="B34" s="78" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C34" s="96" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D34" s="78" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E34" s="78" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F34" s="78">
         <v>1</v>
       </c>
       <c r="G34" s="125" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I34" s="92"/>
     </row>
-    <row r="35" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="91">
         <v>33</v>
       </c>
       <c r="B35" s="77" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C35" s="77" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D35" s="77" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E35" s="77" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F35" s="77">
         <v>1</v>
       </c>
       <c r="G35" s="119" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I35" s="92"/>
     </row>
-    <row r="36" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="93">
         <v>34</v>
       </c>
       <c r="B36" s="78" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C36" s="78" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="D36" s="78" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E36" s="78" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F36" s="78">
         <v>4</v>
       </c>
       <c r="G36" s="125" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I36" s="92"/>
     </row>
-    <row r="37" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="91">
         <v>35</v>
       </c>
       <c r="B37" s="77" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C37" s="77" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D37" s="77" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E37" s="77" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F37" s="77">
         <v>1</v>
       </c>
       <c r="G37" s="124" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I37" s="92"/>
     </row>
-    <row r="38" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="93">
         <v>36</v>
       </c>
       <c r="B38" s="78" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C38" s="78" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D38" s="78" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E38" s="78" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F38" s="78">
         <v>3</v>
       </c>
       <c r="G38" s="125" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I38" s="92"/>
     </row>
-    <row r="39" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="91">
         <v>37</v>
       </c>
       <c r="B39" s="77" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C39" s="77" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D39" s="77" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E39" s="77" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F39" s="77">
         <v>2</v>
       </c>
       <c r="G39" s="124" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I39" s="92"/>
     </row>
-    <row r="40" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="93">
         <v>38</v>
       </c>
       <c r="B40" s="78" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C40" s="96" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D40" s="78" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E40" s="78" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F40" s="78">
         <v>1</v>
       </c>
       <c r="G40" s="125" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I40" s="92"/>
     </row>
-    <row r="41" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="91">
         <v>39</v>
       </c>
       <c r="B41" s="77" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C41" s="77" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D41" s="77" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E41" s="77" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F41" s="77">
         <v>1</v>
@@ -4169,1499 +4199,1520 @@
       <c r="G41" s="124"/>
       <c r="I41" s="92"/>
     </row>
-    <row r="42" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="106">
-        <v>40</v>
+    <row r="42" spans="1:10" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="137" t="s">
+        <v>285</v>
       </c>
       <c r="B42" s="107" t="s">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="C42" s="107" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="D42" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="106" t="s">
-        <v>250</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="E42" s="106"/>
       <c r="F42" s="107">
         <v>1</v>
       </c>
-      <c r="G42" s="126" t="s">
-        <v>34</v>
-      </c>
+      <c r="G42" s="126"/>
       <c r="I42" s="92"/>
-    </row>
-    <row r="43" spans="1:9" s="98" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J42" s="98"/>
+    </row>
+    <row r="43" spans="1:10" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="91">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="77" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C43" s="77" t="s">
-        <v>154</v>
+        <v>254</v>
       </c>
       <c r="D43" s="77" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E43" s="77" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="F43" s="77">
         <v>1</v>
       </c>
       <c r="G43" s="124" t="s">
-        <v>34</v>
-      </c>
-      <c r="H43" s="94"/>
+        <v>38</v>
+      </c>
       <c r="I43" s="92"/>
     </row>
-    <row r="44" spans="1:9" s="98" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" s="98" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="106">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="107" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C44" s="107" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D44" s="107" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E44" s="107" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F44" s="107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="127" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H44" s="94"/>
       <c r="I44" s="92"/>
     </row>
-    <row r="45" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79" t="s">
-        <v>281</v>
-      </c>
-      <c r="F45" s="79" t="s">
+    <row r="45" spans="1:10" s="98" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="91">
+        <v>42</v>
+      </c>
+      <c r="B45" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="D45" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="77">
+        <v>2</v>
+      </c>
+      <c r="G45" s="124" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="94"/>
+      <c r="I45" s="92"/>
+    </row>
+    <row r="46" spans="1:10" s="94" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="117" t="s">
+        <v>274</v>
+      </c>
+      <c r="B46" s="79"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="G45" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="I45" s="92"/>
-    </row>
-    <row r="46" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="88"/>
-      <c r="B46" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="80" t="s">
+      <c r="G46" s="121" t="s">
+        <v>97</v>
+      </c>
+      <c r="I46" s="92"/>
+    </row>
+    <row r="47" spans="1:10" s="94" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="88"/>
+      <c r="B47" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="F46" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="122" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="92"/>
-    </row>
-    <row r="47" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="93">
+      <c r="F47" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="122" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" s="92"/>
+    </row>
+    <row r="48" spans="1:10" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="93">
         <v>43</v>
       </c>
-      <c r="B47" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="78" t="s">
-        <v>253</v>
-      </c>
-      <c r="D47" s="78" t="s">
+      <c r="B48" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="D48" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="78" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" s="99">
+        <v>1</v>
+      </c>
+      <c r="G48" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="92"/>
+    </row>
+    <row r="49" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="91">
+        <v>44</v>
+      </c>
+      <c r="B49" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="F49" s="77">
+        <v>1</v>
+      </c>
+      <c r="G49" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49" s="92"/>
+    </row>
+    <row r="50" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="93">
+        <v>45</v>
+      </c>
+      <c r="B50" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="F50" s="78">
+        <v>2</v>
+      </c>
+      <c r="G50" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="I50" s="92"/>
+    </row>
+    <row r="51" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="91">
+        <v>46</v>
+      </c>
+      <c r="B51" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="D51" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="F51" s="77">
+        <v>1</v>
+      </c>
+      <c r="G51" s="124" t="s">
+        <v>38</v>
+      </c>
+      <c r="I51" s="92"/>
+    </row>
+    <row r="52" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="93">
+        <v>47</v>
+      </c>
+      <c r="B52" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" s="78">
+        <v>1</v>
+      </c>
+      <c r="G52" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="I52" s="92"/>
+    </row>
+    <row r="53" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="91">
+        <v>48</v>
+      </c>
+      <c r="B53" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="77" t="s">
+        <v>216</v>
+      </c>
+      <c r="F53" s="77">
+        <v>1</v>
+      </c>
+      <c r="G53" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53" s="92"/>
+    </row>
+    <row r="54" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="93">
+        <v>49</v>
+      </c>
+      <c r="B54" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" s="78">
+        <v>1</v>
+      </c>
+      <c r="G54" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="I54" s="92"/>
+    </row>
+    <row r="55" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="91">
+        <v>50</v>
+      </c>
+      <c r="B55" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" s="77">
+        <v>2</v>
+      </c>
+      <c r="G55" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="I55" s="92"/>
+    </row>
+    <row r="56" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="93">
+        <v>51</v>
+      </c>
+      <c r="B56" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="C56" s="78" t="s">
+        <v>262</v>
+      </c>
+      <c r="D56" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="F56" s="78">
+        <v>1</v>
+      </c>
+      <c r="G56" s="120" t="s">
+        <v>37</v>
+      </c>
+      <c r="I56" s="92"/>
+    </row>
+    <row r="57" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="91">
+        <v>52</v>
+      </c>
+      <c r="B57" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57" s="105" t="s">
+        <v>264</v>
+      </c>
+      <c r="D57" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="F57" s="77">
+        <v>1</v>
+      </c>
+      <c r="G57" s="119" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="93">
+        <v>53</v>
+      </c>
+      <c r="B58" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="D58" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="F58" s="78">
+        <v>1</v>
+      </c>
+      <c r="G58" s="120" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="91">
+        <v>54</v>
+      </c>
+      <c r="B59" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="D59" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="77">
+        <v>1</v>
+      </c>
+      <c r="G59" s="119" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="93">
+        <v>55</v>
+      </c>
+      <c r="B60" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="78" t="s">
+        <v>217</v>
+      </c>
+      <c r="D60" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="78">
+        <v>7</v>
+      </c>
+      <c r="G60" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="F47" s="99">
+    </row>
+    <row r="61" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="91">
+        <v>56</v>
+      </c>
+      <c r="B61" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" s="77">
         <v>1</v>
       </c>
-      <c r="G47" s="125" t="s">
-        <v>34</v>
-      </c>
-      <c r="I47" s="92"/>
-    </row>
-    <row r="48" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="91">
-        <v>44</v>
-      </c>
-      <c r="B48" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="D48" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="77" t="s">
-        <v>255</v>
-      </c>
-      <c r="F48" s="77">
+      <c r="G61" s="119"/>
+    </row>
+    <row r="62" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="93">
+        <v>57</v>
+      </c>
+      <c r="B62" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="E62" s="78" t="s">
+        <v>201</v>
+      </c>
+      <c r="F62" s="78">
         <v>1</v>
       </c>
-      <c r="G48" s="119" t="s">
-        <v>34</v>
-      </c>
-      <c r="I48" s="92"/>
-    </row>
-    <row r="49" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="93">
-        <v>45</v>
-      </c>
-      <c r="B49" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="78" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="78" t="s">
+      <c r="G62" s="120"/>
+    </row>
+    <row r="63" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="91">
+        <v>58</v>
+      </c>
+      <c r="B63" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="D63" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="E63" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="F63" s="77">
+        <v>3</v>
+      </c>
+      <c r="G63" s="119"/>
+    </row>
+    <row r="64" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="93">
+        <v>59</v>
+      </c>
+      <c r="B64" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="D64" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" s="78" t="s">
+        <v>207</v>
+      </c>
+      <c r="F64" s="78">
+        <v>1</v>
+      </c>
+      <c r="G64" s="120"/>
+    </row>
+    <row r="65" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="91">
+        <v>60</v>
+      </c>
+      <c r="B65" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="D65" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="F65" s="77">
+        <v>1</v>
+      </c>
+      <c r="G65" s="128"/>
+    </row>
+    <row r="66" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="93">
+        <v>61</v>
+      </c>
+      <c r="B66" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="78" t="s">
+        <v>278</v>
+      </c>
+      <c r="D66" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="E66" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="F66" s="78">
+        <v>1</v>
+      </c>
+      <c r="G66" s="120"/>
+      <c r="J66" s="129"/>
+    </row>
+    <row r="67" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="91">
+        <v>62</v>
+      </c>
+      <c r="B67" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="D67" s="77" t="s">
+        <v>267</v>
+      </c>
+      <c r="E67" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="F67" s="77">
+        <v>1</v>
+      </c>
+      <c r="G67" s="119" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="93"/>
+      <c r="B68" s="78"/>
+      <c r="C68" s="78" t="s">
+        <v>233</v>
+      </c>
+      <c r="D68" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="E68" s="78"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="130"/>
+    </row>
+    <row r="69" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="91">
+        <v>63</v>
+      </c>
+      <c r="B69" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="E69" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" s="77">
+        <v>1</v>
+      </c>
+      <c r="G69" s="119"/>
+      <c r="H69" s="94"/>
+    </row>
+    <row r="70" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="93">
+        <v>64</v>
+      </c>
+      <c r="B70" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="E70" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="F70" s="78">
+        <v>1</v>
+      </c>
+      <c r="G70" s="120" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="91">
+        <v>65</v>
+      </c>
+      <c r="B71" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="E71" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="F71" s="77">
+        <v>1</v>
+      </c>
+      <c r="G71" s="119"/>
+    </row>
+    <row r="72" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="93">
+        <v>66</v>
+      </c>
+      <c r="B72" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="C72" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="E72" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="F72" s="78">
+        <v>1</v>
+      </c>
+      <c r="G72" s="120"/>
+    </row>
+    <row r="73" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="91">
+        <v>67</v>
+      </c>
+      <c r="B73" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="E73" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="F73" s="77">
+        <v>1</v>
+      </c>
+      <c r="G73" s="119"/>
+    </row>
+    <row r="74" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="93">
+        <v>68</v>
+      </c>
+      <c r="B74" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="78" t="s">
+        <v>232</v>
+      </c>
+      <c r="D74" s="78" t="s">
+        <v>223</v>
+      </c>
+      <c r="E74" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="F74" s="78">
+        <v>1</v>
+      </c>
+      <c r="G74" s="120"/>
+    </row>
+    <row r="75" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="91">
+        <v>69</v>
+      </c>
+      <c r="B75" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="E75" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="F75" s="77">
+        <v>1</v>
+      </c>
+      <c r="G75" s="119"/>
+    </row>
+    <row r="76" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="93">
+        <v>70</v>
+      </c>
+      <c r="B76" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="D76" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="F76" s="78">
+        <v>2</v>
+      </c>
+      <c r="G76" s="120"/>
+    </row>
+    <row r="77" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="91">
+        <v>71</v>
+      </c>
+      <c r="B77" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D77" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="F77" s="77">
+        <v>1</v>
+      </c>
+      <c r="G77" s="119"/>
+    </row>
+    <row r="78" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="93">
+        <v>72</v>
+      </c>
+      <c r="B78" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="F78" s="78">
+        <v>1</v>
+      </c>
+      <c r="G78" s="120"/>
+      <c r="H78" s="94"/>
+    </row>
+    <row r="79" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="91">
+        <v>73</v>
+      </c>
+      <c r="B79" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="E79" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="F79" s="77">
+        <v>1</v>
+      </c>
+      <c r="G79" s="119"/>
+    </row>
+    <row r="80" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="93">
+        <v>74</v>
+      </c>
+      <c r="B80" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="C80" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="D80" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="F49" s="78">
+      <c r="F80" s="78">
+        <v>1</v>
+      </c>
+      <c r="G80" s="120"/>
+    </row>
+    <row r="81" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="91">
+        <v>75</v>
+      </c>
+      <c r="B81" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="D81" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E81" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="F81" s="77">
         <v>2</v>
       </c>
-      <c r="G49" s="125" t="s">
-        <v>34</v>
-      </c>
-      <c r="I49" s="92"/>
-    </row>
-    <row r="50" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="91">
-        <v>46</v>
-      </c>
-      <c r="B50" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="77" t="s">
-        <v>252</v>
-      </c>
-      <c r="D50" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="77" t="s">
-        <v>254</v>
-      </c>
-      <c r="F50" s="77">
-        <v>1</v>
-      </c>
-      <c r="G50" s="124" t="s">
-        <v>34</v>
-      </c>
-      <c r="I50" s="92"/>
-    </row>
-    <row r="51" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="93">
-        <v>47</v>
-      </c>
-      <c r="B51" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="D51" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="78" t="s">
-        <v>146</v>
-      </c>
-      <c r="F51" s="78">
-        <v>1</v>
-      </c>
-      <c r="G51" s="125" t="s">
-        <v>34</v>
-      </c>
-      <c r="I51" s="92"/>
-    </row>
-    <row r="52" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="91">
-        <v>48</v>
-      </c>
-      <c r="B52" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" s="77" t="s">
-        <v>212</v>
-      </c>
-      <c r="F52" s="77">
-        <v>1</v>
-      </c>
-      <c r="G52" s="119" t="s">
-        <v>34</v>
-      </c>
-      <c r="I52" s="92"/>
-    </row>
-    <row r="53" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="93">
-        <v>49</v>
-      </c>
-      <c r="B53" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="78" t="s">
-        <v>135</v>
-      </c>
-      <c r="D53" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="78" t="s">
-        <v>144</v>
-      </c>
-      <c r="F53" s="78">
-        <v>1</v>
-      </c>
-      <c r="G53" s="125" t="s">
-        <v>34</v>
-      </c>
-      <c r="I53" s="92"/>
-    </row>
-    <row r="54" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="91">
-        <v>50</v>
-      </c>
-      <c r="B54" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="F54" s="77">
+      <c r="G81" s="119"/>
+    </row>
+    <row r="82" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="93">
+        <v>76</v>
+      </c>
+      <c r="B82" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="78" t="s">
+        <v>224</v>
+      </c>
+      <c r="F82" s="78">
         <v>2</v>
       </c>
-      <c r="G54" s="119" t="s">
-        <v>34</v>
-      </c>
-      <c r="I54" s="92"/>
-    </row>
-    <row r="55" spans="1:9" s="94" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="93">
-        <v>51</v>
-      </c>
-      <c r="B55" s="78" t="s">
-        <v>256</v>
-      </c>
-      <c r="C55" s="78" t="s">
-        <v>257</v>
-      </c>
-      <c r="D55" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="78" t="s">
-        <v>258</v>
-      </c>
-      <c r="F55" s="78">
-        <v>1</v>
-      </c>
-      <c r="G55" s="120" t="s">
-        <v>33</v>
-      </c>
-      <c r="I55" s="92"/>
-    </row>
-    <row r="56" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="91">
-        <v>52</v>
-      </c>
-      <c r="B56" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="C56" s="105" t="s">
-        <v>259</v>
-      </c>
-      <c r="D56" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="77" t="s">
-        <v>260</v>
-      </c>
-      <c r="F56" s="77">
-        <v>1</v>
-      </c>
-      <c r="G56" s="119" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="93">
-        <v>53</v>
-      </c>
-      <c r="B57" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="D57" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="78" t="s">
-        <v>264</v>
-      </c>
-      <c r="F57" s="78">
-        <v>1</v>
-      </c>
-      <c r="G57" s="120" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="91">
-        <v>54</v>
-      </c>
-      <c r="B58" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" s="77" t="s">
-        <v>263</v>
-      </c>
-      <c r="D58" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="77">
-        <v>1</v>
-      </c>
-      <c r="G58" s="119" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="93">
-        <v>55</v>
-      </c>
-      <c r="B59" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" s="78" t="s">
-        <v>213</v>
-      </c>
-      <c r="D59" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="F59" s="78">
-        <v>7</v>
-      </c>
-      <c r="G59" s="120" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="91">
-        <v>56</v>
-      </c>
-      <c r="B60" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="D60" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="F60" s="77">
-        <v>1</v>
-      </c>
-      <c r="G60" s="119"/>
-    </row>
-    <row r="61" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="93">
-        <v>57</v>
-      </c>
-      <c r="B61" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="C61" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="D61" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="E61" s="78" t="s">
-        <v>197</v>
-      </c>
-      <c r="F61" s="78">
-        <v>1</v>
-      </c>
-      <c r="G61" s="120"/>
-    </row>
-    <row r="62" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="91">
-        <v>58</v>
-      </c>
-      <c r="B62" s="77" t="s">
-        <v>198</v>
-      </c>
-      <c r="C62" s="77" t="s">
-        <v>199</v>
-      </c>
-      <c r="D62" s="77" t="s">
-        <v>200</v>
-      </c>
-      <c r="E62" s="77" t="s">
-        <v>201</v>
-      </c>
-      <c r="F62" s="77">
-        <v>3</v>
-      </c>
-      <c r="G62" s="119"/>
-    </row>
-    <row r="63" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="93">
-        <v>59</v>
-      </c>
-      <c r="B63" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" s="78" t="s">
-        <v>202</v>
-      </c>
-      <c r="D63" s="78" t="s">
-        <v>126</v>
-      </c>
-      <c r="E63" s="78" t="s">
-        <v>203</v>
-      </c>
-      <c r="F63" s="78">
-        <v>1</v>
-      </c>
-      <c r="G63" s="120"/>
-    </row>
-    <row r="64" spans="1:9" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="91">
-        <v>60</v>
-      </c>
-      <c r="B64" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="77" t="s">
-        <v>271</v>
-      </c>
-      <c r="D64" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="E64" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="F64" s="77">
-        <v>1</v>
-      </c>
-      <c r="G64" s="128"/>
-    </row>
-    <row r="65" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="93">
-        <v>61</v>
-      </c>
-      <c r="B65" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="78" t="s">
-        <v>270</v>
-      </c>
-      <c r="D65" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="E65" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="F65" s="78">
-        <v>1</v>
-      </c>
-      <c r="G65" s="120"/>
-      <c r="J65" s="129"/>
-    </row>
-    <row r="66" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="91">
-        <v>62</v>
-      </c>
-      <c r="B66" s="77" t="s">
-        <v>214</v>
-      </c>
-      <c r="C66" s="77" t="s">
-        <v>269</v>
-      </c>
-      <c r="D66" s="77" t="s">
-        <v>262</v>
-      </c>
-      <c r="E66" s="77" t="s">
-        <v>215</v>
-      </c>
-      <c r="F66" s="77">
-        <v>1</v>
-      </c>
-      <c r="G66" s="119" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="93"/>
-      <c r="B67" s="78"/>
-      <c r="C67" s="78" t="s">
-        <v>229</v>
-      </c>
-      <c r="D67" s="78" t="s">
-        <v>261</v>
-      </c>
-      <c r="E67" s="78"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="130"/>
-    </row>
-    <row r="68" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="91">
-        <v>63</v>
-      </c>
-      <c r="B68" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68" s="77" t="s">
-        <v>216</v>
-      </c>
-      <c r="E68" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="F68" s="77">
-        <v>1</v>
-      </c>
-      <c r="G68" s="119"/>
-      <c r="H68" s="94"/>
-    </row>
-    <row r="69" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="93">
-        <v>64</v>
-      </c>
-      <c r="B69" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="C69" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="D69" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="E69" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="F69" s="78">
-        <v>1</v>
-      </c>
-      <c r="G69" s="120" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="91">
-        <v>65</v>
-      </c>
-      <c r="B70" s="77" t="s">
-        <v>122</v>
-      </c>
-      <c r="C70" s="77" t="s">
-        <v>124</v>
-      </c>
-      <c r="D70" s="77" t="s">
-        <v>120</v>
-      </c>
-      <c r="E70" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="F70" s="77">
-        <v>1</v>
-      </c>
-      <c r="G70" s="119"/>
-    </row>
-    <row r="71" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="93">
-        <v>66</v>
-      </c>
-      <c r="B71" s="78" t="s">
-        <v>217</v>
-      </c>
-      <c r="C71" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="D71" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="E71" s="78" t="s">
-        <v>119</v>
-      </c>
-      <c r="F71" s="78">
-        <v>1</v>
-      </c>
-      <c r="G71" s="120"/>
-    </row>
-    <row r="72" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="91">
-        <v>67</v>
-      </c>
-      <c r="B72" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="C72" s="77" t="s">
-        <v>118</v>
-      </c>
-      <c r="D72" s="77" t="s">
-        <v>200</v>
-      </c>
-      <c r="E72" s="77" t="s">
-        <v>218</v>
-      </c>
-      <c r="F72" s="77">
-        <v>1</v>
-      </c>
-      <c r="G72" s="119"/>
-    </row>
-    <row r="73" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="93">
-        <v>68</v>
-      </c>
-      <c r="B73" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="D73" s="78" t="s">
-        <v>219</v>
-      </c>
-      <c r="E73" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="F73" s="78">
-        <v>1</v>
-      </c>
-      <c r="G73" s="120"/>
-    </row>
-    <row r="74" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="91">
-        <v>69</v>
-      </c>
-      <c r="B74" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="D74" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="E74" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="F74" s="77">
-        <v>1</v>
-      </c>
-      <c r="G74" s="119"/>
-    </row>
-    <row r="75" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="93">
-        <v>70</v>
-      </c>
-      <c r="B75" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="D75" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="F75" s="78">
-        <v>2</v>
-      </c>
-      <c r="G75" s="120"/>
-    </row>
-    <row r="76" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="91">
-        <v>71</v>
-      </c>
-      <c r="B76" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="C76" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="D76" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="E76" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="F76" s="77">
-        <v>1</v>
-      </c>
-      <c r="G76" s="119"/>
-    </row>
-    <row r="77" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="93">
-        <v>72</v>
-      </c>
-      <c r="B77" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="C77" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="D77" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="E77" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="F77" s="78">
-        <v>1</v>
-      </c>
-      <c r="G77" s="120"/>
-      <c r="H77" s="94"/>
-    </row>
-    <row r="78" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="91">
-        <v>73</v>
-      </c>
-      <c r="B78" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="C78" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="D78" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="E78" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="F78" s="77">
-        <v>1</v>
-      </c>
-      <c r="G78" s="119"/>
-    </row>
-    <row r="79" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="93">
-        <v>74</v>
-      </c>
-      <c r="B79" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="C79" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="D79" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="E79" s="78" t="s">
-        <v>143</v>
-      </c>
-      <c r="F79" s="78">
-        <v>1</v>
-      </c>
-      <c r="G79" s="120"/>
-    </row>
-    <row r="80" spans="1:10" s="92" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="91">
-        <v>75</v>
-      </c>
-      <c r="B80" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="C80" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="D80" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="E80" s="77" t="s">
-        <v>221</v>
-      </c>
-      <c r="F80" s="77">
-        <v>2</v>
-      </c>
-      <c r="G80" s="119"/>
-    </row>
-    <row r="81" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="93">
-        <v>76</v>
-      </c>
-      <c r="B81" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="D81" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="E81" s="78" t="s">
-        <v>220</v>
-      </c>
-      <c r="F81" s="78">
-        <v>2</v>
-      </c>
-      <c r="G81" s="120"/>
-      <c r="H81" s="100"/>
-      <c r="I81" s="92"/>
-    </row>
-    <row r="82" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="91">
-        <v>77</v>
-      </c>
-      <c r="B82" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="C82" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="D82" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="E82" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="F82" s="77">
-        <v>2</v>
-      </c>
-      <c r="G82" s="119" t="s">
-        <v>58</v>
-      </c>
+      <c r="G82" s="120"/>
       <c r="H82" s="100"/>
       <c r="I82" s="92"/>
     </row>
     <row r="83" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="93">
-        <v>78</v>
-      </c>
-      <c r="B83" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="D83" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="E83" s="78" t="s">
-        <v>141</v>
-      </c>
-      <c r="F83" s="78">
-        <v>8</v>
-      </c>
-      <c r="G83" s="120" t="s">
-        <v>58</v>
+      <c r="A83" s="91">
+        <v>77</v>
+      </c>
+      <c r="B83" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="D83" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="E83" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="F83" s="77">
+        <v>2</v>
+      </c>
+      <c r="G83" s="119" t="s">
+        <v>63</v>
       </c>
       <c r="H83" s="100"/>
       <c r="I83" s="92"/>
     </row>
     <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="91">
-        <v>79</v>
-      </c>
-      <c r="B84" s="77" t="s">
-        <v>222</v>
-      </c>
-      <c r="C84" s="77" t="s">
-        <v>223</v>
-      </c>
-      <c r="D84" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="E84" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="F84" s="77">
-        <v>1</v>
-      </c>
-      <c r="G84" s="119"/>
+      <c r="A84" s="93">
+        <v>78</v>
+      </c>
+      <c r="B84" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="D84" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E84" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="F84" s="78">
+        <v>8</v>
+      </c>
+      <c r="G84" s="120" t="s">
+        <v>63</v>
+      </c>
       <c r="H84" s="100"/>
       <c r="I84" s="92"/>
     </row>
     <row r="85" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="93">
+      <c r="A85" s="91">
+        <v>79</v>
+      </c>
+      <c r="B85" s="77" t="s">
+        <v>226</v>
+      </c>
+      <c r="C85" s="77" t="s">
+        <v>227</v>
+      </c>
+      <c r="D85" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="E85" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" s="77">
+        <v>1</v>
+      </c>
+      <c r="G85" s="119"/>
+      <c r="H85" s="100"/>
+      <c r="I85" s="92"/>
+    </row>
+    <row r="86" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="93">
         <v>80</v>
       </c>
-      <c r="B85" s="78" t="s">
-        <v>222</v>
-      </c>
-      <c r="C85" s="78" t="s">
-        <v>224</v>
-      </c>
-      <c r="D85" s="78" t="s">
+      <c r="B86" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="C86" s="78" t="s">
+        <v>228</v>
+      </c>
+      <c r="D86" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="E86" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="F86" s="78">
+        <v>1</v>
+      </c>
+      <c r="G86" s="120"/>
+      <c r="I86" s="92"/>
+    </row>
+    <row r="87" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="132"/>
+      <c r="B87" s="133"/>
+      <c r="C87" s="133" t="s">
+        <v>230</v>
+      </c>
+      <c r="D87" s="133" t="s">
+        <v>231</v>
+      </c>
+      <c r="E87" s="133"/>
+      <c r="F87" s="133"/>
+      <c r="G87" s="135"/>
+      <c r="I87" s="92"/>
+    </row>
+    <row r="88" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" s="79"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="G88" s="121" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="88"/>
+      <c r="B89" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F89" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89" s="122" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="93">
+        <v>81</v>
+      </c>
+      <c r="B90" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="D90" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="E90" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="F90" s="99">
+        <v>1</v>
+      </c>
+      <c r="G90" s="125"/>
+    </row>
+    <row r="91" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="91">
+        <v>82</v>
+      </c>
+      <c r="B91" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="C91" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="D91" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="E91" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="E85" s="78" t="s">
-        <v>225</v>
-      </c>
-      <c r="F85" s="78">
+      <c r="F91" s="77">
         <v>1</v>
       </c>
-      <c r="G85" s="120"/>
-      <c r="I85" s="92"/>
-    </row>
-    <row r="86" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="132"/>
-      <c r="B86" s="133"/>
-      <c r="C86" s="133" t="s">
-        <v>226</v>
-      </c>
-      <c r="D86" s="133" t="s">
-        <v>227</v>
-      </c>
-      <c r="E86" s="133"/>
-      <c r="F86" s="133"/>
-      <c r="G86" s="135"/>
-      <c r="I86" s="92"/>
-    </row>
-    <row r="87" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="B87" s="79"/>
-      <c r="C87" s="79"/>
-      <c r="D87" s="79"/>
-      <c r="E87" s="79" t="s">
-        <v>281</v>
-      </c>
-      <c r="F87" s="79" t="s">
+      <c r="G91" s="119" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="93">
+        <v>83</v>
+      </c>
+      <c r="B92" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C92" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="D92" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="F92" s="78">
         <v>1</v>
       </c>
-      <c r="G87" s="121" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="88"/>
-      <c r="B88" s="80" t="s">
+      <c r="G92" s="125"/>
+    </row>
+    <row r="93" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="91">
+        <v>84</v>
+      </c>
+      <c r="B93" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="D93" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="E93" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="F93" s="77">
+        <v>2</v>
+      </c>
+      <c r="G93" s="124"/>
+    </row>
+    <row r="94" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="93">
+        <v>85</v>
+      </c>
+      <c r="B94" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="D94" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="E94" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="F94" s="78">
+        <v>1</v>
+      </c>
+      <c r="G94" s="125"/>
+    </row>
+    <row r="95" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="91">
+        <v>86</v>
+      </c>
+      <c r="B95" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="D95" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="E95" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="F95" s="77">
+        <v>1</v>
+      </c>
+      <c r="G95" s="119"/>
+    </row>
+    <row r="96" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="93">
+        <v>87</v>
+      </c>
+      <c r="B96" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="D96" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="E96" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="F96" s="78">
+        <v>1</v>
+      </c>
+      <c r="G96" s="125"/>
+    </row>
+    <row r="97" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="132"/>
+      <c r="B97" s="133"/>
+      <c r="C97" s="133"/>
+      <c r="D97" s="133"/>
+      <c r="E97" s="133"/>
+      <c r="F97" s="133"/>
+      <c r="G97" s="134"/>
+    </row>
+    <row r="98" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="93"/>
+      <c r="B98" s="78"/>
+      <c r="C98" s="78"/>
+      <c r="D98" s="78"/>
+      <c r="E98" s="78"/>
+      <c r="F98" s="78"/>
+      <c r="G98" s="125"/>
+    </row>
+    <row r="99" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="91"/>
+      <c r="B99" s="77"/>
+      <c r="C99" s="105"/>
+      <c r="D99" s="77"/>
+      <c r="E99" s="77"/>
+      <c r="F99" s="77"/>
+      <c r="G99" s="119"/>
+    </row>
+    <row r="100" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="93"/>
+      <c r="B100" s="78"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="78"/>
+      <c r="E100" s="78"/>
+      <c r="F100" s="78"/>
+      <c r="G100" s="120"/>
+    </row>
+    <row r="101" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="91"/>
+      <c r="B101" s="77"/>
+      <c r="C101" s="77"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="119"/>
+    </row>
+    <row r="102" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="93"/>
+      <c r="B102" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="C102" s="78"/>
+      <c r="D102" s="78"/>
+      <c r="E102" s="78"/>
+      <c r="F102" s="78">
+        <f>SUM(F1:F101)</f>
+        <v>189</v>
+      </c>
+      <c r="G102" s="120"/>
+    </row>
+    <row r="103" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="91"/>
+      <c r="B103" s="77"/>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="119"/>
+    </row>
+    <row r="104" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="93"/>
+      <c r="B104" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="C104" s="78"/>
+      <c r="D104" s="78"/>
+      <c r="E104" s="78" t="s">
+        <v>271</v>
+      </c>
+      <c r="F104" s="78">
         <v>17</v>
       </c>
-      <c r="C88" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="D88" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="E88" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="F88" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" s="122" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="93">
-        <v>81</v>
-      </c>
-      <c r="B89" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="C89" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="D89" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="E89" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="F89" s="99">
-        <v>1</v>
-      </c>
-      <c r="G89" s="125"/>
-    </row>
-    <row r="90" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="91">
-        <v>82</v>
-      </c>
-      <c r="B90" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="C90" s="77" t="s">
+      <c r="G104" s="120"/>
+    </row>
+    <row r="105" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="91"/>
+      <c r="B105" s="77"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="119"/>
+    </row>
+    <row r="106" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="93"/>
+      <c r="B106" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="E90" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="F90" s="77">
-        <v>1</v>
-      </c>
-      <c r="G90" s="119" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="93">
-        <v>83</v>
-      </c>
-      <c r="B91" s="78" t="s">
-        <v>50</v>
-      </c>
-      <c r="C91" s="78" t="s">
-        <v>140</v>
-      </c>
-      <c r="D91" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="E91" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="F91" s="78">
-        <v>1</v>
-      </c>
-      <c r="G91" s="125"/>
-    </row>
-    <row r="92" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="91">
-        <v>84</v>
-      </c>
-      <c r="B92" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="C92" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="D92" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="E92" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="F92" s="77">
-        <v>2</v>
-      </c>
-      <c r="G92" s="124"/>
-    </row>
-    <row r="93" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="93">
-        <v>85</v>
-      </c>
-      <c r="B93" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="C93" s="78" t="s">
-        <v>138</v>
-      </c>
-      <c r="D93" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="E93" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="F93" s="78">
-        <v>1</v>
-      </c>
-      <c r="G93" s="125"/>
-    </row>
-    <row r="94" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="91">
-        <v>86</v>
-      </c>
-      <c r="B94" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="C94" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="D94" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="E94" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="F94" s="77">
-        <v>1</v>
-      </c>
-      <c r="G94" s="119"/>
-    </row>
-    <row r="95" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="93">
-        <v>87</v>
-      </c>
-      <c r="B95" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="C95" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="D95" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="E95" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="F95" s="78">
-        <v>1</v>
-      </c>
-      <c r="G95" s="125"/>
-    </row>
-    <row r="96" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="132"/>
-      <c r="B96" s="133"/>
-      <c r="C96" s="133"/>
-      <c r="D96" s="133"/>
-      <c r="E96" s="133"/>
-      <c r="F96" s="133"/>
-      <c r="G96" s="134"/>
-    </row>
-    <row r="97" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="93"/>
-      <c r="B97" s="78"/>
-      <c r="C97" s="78"/>
-      <c r="D97" s="78"/>
-      <c r="E97" s="78"/>
-      <c r="F97" s="78"/>
-      <c r="G97" s="125"/>
-    </row>
-    <row r="98" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="91"/>
-      <c r="B98" s="77"/>
-      <c r="C98" s="105"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="77"/>
-      <c r="F98" s="77"/>
-      <c r="G98" s="119"/>
-    </row>
-    <row r="99" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="93"/>
-      <c r="B99" s="78"/>
-      <c r="C99" s="78"/>
-      <c r="D99" s="78"/>
-      <c r="E99" s="78"/>
-      <c r="F99" s="78"/>
-      <c r="G99" s="120"/>
-    </row>
-    <row r="100" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="91"/>
-      <c r="B100" s="77"/>
-      <c r="C100" s="77"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="119"/>
-    </row>
-    <row r="101" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="93"/>
-      <c r="B101" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="C101" s="78"/>
-      <c r="D101" s="78"/>
-      <c r="E101" s="78"/>
-      <c r="F101" s="78">
-        <f>SUM(F1:F100)</f>
-        <v>188</v>
-      </c>
-      <c r="G101" s="120"/>
-    </row>
-    <row r="102" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="91"/>
-      <c r="B102" s="77"/>
-      <c r="C102" s="77"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="77"/>
-      <c r="G102" s="119"/>
-    </row>
-    <row r="103" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="93"/>
-      <c r="B103" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="C103" s="78"/>
-      <c r="D103" s="78"/>
-      <c r="E103" s="78" t="s">
-        <v>266</v>
-      </c>
-      <c r="F103" s="78">
-        <v>17</v>
-      </c>
-      <c r="G103" s="120"/>
-    </row>
-    <row r="104" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="91"/>
-      <c r="B104" s="77"/>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="119"/>
-    </row>
-    <row r="105" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="93"/>
-      <c r="B105" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="C105" s="78"/>
-      <c r="D105" s="78"/>
-      <c r="E105" s="78"/>
-      <c r="F105" s="78"/>
-      <c r="G105" s="120"/>
-    </row>
-    <row r="106" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="91"/>
-      <c r="B106" s="77"/>
-      <c r="C106" s="77"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="119"/>
+      <c r="C106" s="78"/>
+      <c r="D106" s="78"/>
+      <c r="E106" s="78"/>
+      <c r="F106" s="78"/>
+      <c r="G106" s="120"/>
     </row>
     <row r="107" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="93"/>
-      <c r="B107" s="78"/>
-      <c r="C107" s="78"/>
-      <c r="D107" s="78"/>
-      <c r="E107" s="78"/>
-      <c r="F107" s="78"/>
-      <c r="G107" s="120"/>
+      <c r="A107" s="91"/>
+      <c r="B107" s="77"/>
+      <c r="C107" s="77"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="119"/>
     </row>
     <row r="108" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="91"/>
-      <c r="B108" s="77"/>
-      <c r="C108" s="77"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="77"/>
-      <c r="G108" s="119"/>
+      <c r="A108" s="93"/>
+      <c r="B108" s="78"/>
+      <c r="C108" s="78"/>
+      <c r="D108" s="78"/>
+      <c r="E108" s="78"/>
+      <c r="F108" s="78"/>
+      <c r="G108" s="120"/>
     </row>
     <row r="109" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="93"/>
-      <c r="B109" s="78"/>
-      <c r="C109" s="78"/>
-      <c r="D109" s="78"/>
-      <c r="E109" s="78"/>
-      <c r="F109" s="78"/>
-      <c r="G109" s="120"/>
+      <c r="A109" s="91"/>
+      <c r="B109" s="77"/>
+      <c r="C109" s="77"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="119"/>
     </row>
     <row r="110" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="91"/>
-      <c r="B110" s="77"/>
-      <c r="C110" s="77"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="77"/>
-      <c r="G110" s="119"/>
+      <c r="A110" s="93"/>
+      <c r="B110" s="78"/>
+      <c r="C110" s="78"/>
+      <c r="D110" s="78"/>
+      <c r="E110" s="78"/>
+      <c r="F110" s="78"/>
+      <c r="G110" s="120"/>
     </row>
     <row r="111" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="93"/>
-      <c r="B111" s="78"/>
-      <c r="C111" s="78"/>
-      <c r="D111" s="78"/>
-      <c r="E111" s="78"/>
-      <c r="F111" s="78"/>
-      <c r="G111" s="120"/>
+      <c r="A111" s="91"/>
+      <c r="B111" s="77"/>
+      <c r="C111" s="77"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="77"/>
+      <c r="F111" s="77"/>
+      <c r="G111" s="119"/>
     </row>
     <row r="112" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="91"/>
-      <c r="B112" s="77"/>
-      <c r="C112" s="77"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="77"/>
-      <c r="F112" s="77"/>
-      <c r="G112" s="119"/>
+      <c r="A112" s="93"/>
+      <c r="B112" s="78"/>
+      <c r="C112" s="78"/>
+      <c r="D112" s="78"/>
+      <c r="E112" s="78"/>
+      <c r="F112" s="78"/>
+      <c r="G112" s="120"/>
     </row>
     <row r="113" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="93"/>
-      <c r="B113" s="78"/>
-      <c r="C113" s="78"/>
-      <c r="D113" s="78"/>
-      <c r="E113" s="78"/>
-      <c r="F113" s="78"/>
-      <c r="G113" s="120"/>
+      <c r="A113" s="91"/>
+      <c r="B113" s="77"/>
+      <c r="C113" s="77"/>
+      <c r="D113" s="77"/>
+      <c r="E113" s="77"/>
+      <c r="F113" s="77"/>
+      <c r="G113" s="119"/>
     </row>
     <row r="114" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="91"/>
-      <c r="B114" s="77"/>
-      <c r="C114" s="77"/>
-      <c r="D114" s="77"/>
-      <c r="E114" s="77"/>
-      <c r="F114" s="77"/>
-      <c r="G114" s="119"/>
+      <c r="A114" s="93"/>
+      <c r="B114" s="78"/>
+      <c r="C114" s="78"/>
+      <c r="D114" s="78"/>
+      <c r="E114" s="78"/>
+      <c r="F114" s="78"/>
+      <c r="G114" s="120"/>
     </row>
     <row r="115" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="93"/>
-      <c r="B115" s="78"/>
-      <c r="C115" s="78"/>
-      <c r="D115" s="78"/>
-      <c r="E115" s="78"/>
-      <c r="F115" s="78"/>
-      <c r="G115" s="120"/>
+      <c r="A115" s="91"/>
+      <c r="B115" s="77"/>
+      <c r="C115" s="77"/>
+      <c r="D115" s="77"/>
+      <c r="E115" s="77"/>
+      <c r="F115" s="77"/>
+      <c r="G115" s="119"/>
     </row>
     <row r="116" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="91"/>
-      <c r="B116" s="77"/>
-      <c r="C116" s="77"/>
-      <c r="D116" s="77"/>
-      <c r="E116" s="77"/>
-      <c r="F116" s="77"/>
-      <c r="G116" s="119"/>
+      <c r="A116" s="93"/>
+      <c r="B116" s="78"/>
+      <c r="C116" s="78"/>
+      <c r="D116" s="78"/>
+      <c r="E116" s="78"/>
+      <c r="F116" s="78"/>
+      <c r="G116" s="120"/>
     </row>
     <row r="117" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="93"/>
-      <c r="B117" s="78"/>
-      <c r="C117" s="78"/>
-      <c r="D117" s="78"/>
-      <c r="E117" s="78"/>
-      <c r="F117" s="78"/>
-      <c r="G117" s="120"/>
+      <c r="A117" s="91"/>
+      <c r="B117" s="77"/>
+      <c r="C117" s="77"/>
+      <c r="D117" s="77"/>
+      <c r="E117" s="77"/>
+      <c r="F117" s="77"/>
+      <c r="G117" s="119"/>
     </row>
     <row r="118" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="91"/>
-      <c r="B118" s="77"/>
-      <c r="C118" s="77"/>
-      <c r="D118" s="77"/>
-      <c r="E118" s="77"/>
-      <c r="F118" s="77"/>
-      <c r="G118" s="119"/>
+      <c r="A118" s="93"/>
+      <c r="B118" s="78"/>
+      <c r="C118" s="78"/>
+      <c r="D118" s="78"/>
+      <c r="E118" s="78"/>
+      <c r="F118" s="78"/>
+      <c r="G118" s="120"/>
     </row>
     <row r="119" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="93"/>
-      <c r="B119" s="78"/>
-      <c r="C119" s="78"/>
-      <c r="D119" s="78"/>
-      <c r="E119" s="78"/>
-      <c r="F119" s="78"/>
-      <c r="G119" s="120"/>
+      <c r="A119" s="91"/>
+      <c r="B119" s="77"/>
+      <c r="C119" s="77"/>
+      <c r="D119" s="77"/>
+      <c r="E119" s="77"/>
+      <c r="F119" s="77"/>
+      <c r="G119" s="119"/>
     </row>
     <row r="120" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="91"/>
-      <c r="B120" s="77"/>
-      <c r="C120" s="77"/>
-      <c r="D120" s="77"/>
-      <c r="E120" s="77"/>
-      <c r="F120" s="77"/>
-      <c r="G120" s="119"/>
+      <c r="A120" s="93"/>
+      <c r="B120" s="78"/>
+      <c r="C120" s="78"/>
+      <c r="D120" s="78"/>
+      <c r="E120" s="78"/>
+      <c r="F120" s="78"/>
+      <c r="G120" s="120"/>
     </row>
     <row r="121" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="93"/>
-      <c r="B121" s="78"/>
-      <c r="C121" s="78"/>
-      <c r="D121" s="78"/>
-      <c r="E121" s="78"/>
-      <c r="F121" s="78"/>
-      <c r="G121" s="120"/>
+      <c r="A121" s="91"/>
+      <c r="B121" s="77"/>
+      <c r="C121" s="77"/>
+      <c r="D121" s="77"/>
+      <c r="E121" s="77"/>
+      <c r="F121" s="77"/>
+      <c r="G121" s="119"/>
     </row>
     <row r="122" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="91"/>
-      <c r="B122" s="77"/>
-      <c r="C122" s="77"/>
-      <c r="D122" s="77"/>
-      <c r="E122" s="77"/>
-      <c r="F122" s="77"/>
-      <c r="G122" s="119"/>
+      <c r="A122" s="93"/>
+      <c r="B122" s="78"/>
+      <c r="C122" s="78"/>
+      <c r="D122" s="78"/>
+      <c r="E122" s="78"/>
+      <c r="F122" s="78"/>
+      <c r="G122" s="120"/>
     </row>
     <row r="123" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="93"/>
-      <c r="B123" s="78"/>
-      <c r="C123" s="78"/>
-      <c r="D123" s="78"/>
-      <c r="E123" s="78"/>
-      <c r="F123" s="78"/>
-      <c r="G123" s="120"/>
+      <c r="A123" s="91"/>
+      <c r="B123" s="77"/>
+      <c r="C123" s="77"/>
+      <c r="D123" s="77"/>
+      <c r="E123" s="77"/>
+      <c r="F123" s="77"/>
+      <c r="G123" s="119"/>
     </row>
     <row r="124" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="91"/>
-      <c r="B124" s="77"/>
-      <c r="C124" s="77"/>
-      <c r="D124" s="77"/>
-      <c r="E124" s="77"/>
-      <c r="F124" s="77"/>
-      <c r="G124" s="119"/>
+      <c r="A124" s="93"/>
+      <c r="B124" s="78"/>
+      <c r="C124" s="78"/>
+      <c r="D124" s="78"/>
+      <c r="E124" s="78"/>
+      <c r="F124" s="78"/>
+      <c r="G124" s="120"/>
     </row>
     <row r="125" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="93"/>
-      <c r="B125" s="78"/>
-      <c r="C125" s="78"/>
-      <c r="D125" s="78"/>
-      <c r="E125" s="78"/>
-      <c r="F125" s="78"/>
-      <c r="G125" s="120"/>
+      <c r="A125" s="91"/>
+      <c r="B125" s="77"/>
+      <c r="C125" s="77"/>
+      <c r="D125" s="77"/>
+      <c r="E125" s="77"/>
+      <c r="F125" s="77"/>
+      <c r="G125" s="119"/>
     </row>
     <row r="126" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="91"/>
-      <c r="B126" s="77"/>
-      <c r="C126" s="77"/>
-      <c r="D126" s="77"/>
-      <c r="E126" s="77"/>
-      <c r="F126" s="77"/>
-      <c r="G126" s="119"/>
+      <c r="A126" s="93"/>
+      <c r="B126" s="78"/>
+      <c r="C126" s="78"/>
+      <c r="D126" s="78"/>
+      <c r="E126" s="78"/>
+      <c r="F126" s="78"/>
+      <c r="G126" s="120"/>
     </row>
     <row r="127" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="93"/>
-      <c r="B127" s="78"/>
-      <c r="C127" s="78"/>
-      <c r="D127" s="78"/>
-      <c r="E127" s="78"/>
-      <c r="F127" s="78"/>
-      <c r="G127" s="120"/>
-    </row>
-    <row r="128" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="101"/>
-      <c r="B128" s="102"/>
-      <c r="C128" s="102"/>
-      <c r="D128" s="102"/>
-      <c r="E128" s="102"/>
-      <c r="F128" s="102"/>
-      <c r="G128" s="123"/>
-    </row>
-    <row r="129" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="131"/>
+      <c r="A127" s="91"/>
+      <c r="B127" s="77"/>
+      <c r="C127" s="77"/>
+      <c r="D127" s="77"/>
+      <c r="E127" s="77"/>
+      <c r="F127" s="77"/>
+      <c r="G127" s="119"/>
+    </row>
+    <row r="128" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="93"/>
+      <c r="B128" s="78"/>
+      <c r="C128" s="78"/>
+      <c r="D128" s="78"/>
+      <c r="E128" s="78"/>
+      <c r="F128" s="78"/>
+      <c r="G128" s="120"/>
+    </row>
+    <row r="129" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="101"/>
+      <c r="B129" s="102"/>
+      <c r="C129" s="102"/>
+      <c r="D129" s="102"/>
+      <c r="E129" s="102"/>
+      <c r="F129" s="102"/>
+      <c r="G129" s="123"/>
+    </row>
+    <row r="130" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="131"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5669,8 +5720,8 @@
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="44" max="6" man="1"/>
-    <brk id="86" max="6" man="1"/>
+    <brk id="45" max="6" man="1"/>
+    <brk id="87" max="6" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>